--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64698481-FEEF-497B-BF91-BDB90197AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E40B72A-D59D-4D1A-99A8-79587F086245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2635,9 +2635,6 @@
     <t>Привязать карту к телефону/в телефон</t>
   </si>
   <si>
-    <t>Снять деньги в офисе/кассе/ у операциониста</t>
-  </si>
-  <si>
     <t>Мне звонили оформили кредит (действие совершено)</t>
   </si>
   <si>
@@ -2675,9 +2672,6 @@
   </si>
   <si>
     <t>списывают деньги с другого счета/пытаетесь долги списали с другого счета</t>
-  </si>
-  <si>
-    <t>Забыл пароль/сменить пароль я не помню пароль</t>
   </si>
   <si>
     <t>Не проходит оплата по карте | не проходит операция по карте | карта не проходит</t>
@@ -2857,18 +2851,32 @@
   </si>
   <si>
     <t>захожу|вхожу</t>
+  </si>
+  <si>
+    <t>Забыл пароль|сменить пароль я не помню пароль</t>
+  </si>
+  <si>
+    <t>Снять деньги в офисе/ в кассе/ у операциониста</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3208,38 +3216,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3248,67 +3256,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3332,22 +3340,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3356,43 +3364,43 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3409,39 +3417,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3462,106 +3470,124 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3569,27 +3595,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4671,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D430" sqref="D430"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4735,7 +4746,7 @@
       <c r="B3" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="121" t="s">
         <v>648</v>
       </c>
       <c r="D3" s="110" t="s">
@@ -4752,7 +4763,7 @@
       <c r="B4" s="95" t="s">
         <v>651</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="121" t="s">
         <v>652</v>
       </c>
       <c r="D4" s="95"/>
@@ -4789,7 +4800,7 @@
       <c r="A7" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="121" t="s">
         <v>654</v>
       </c>
       <c r="C7" s="95" t="s">
@@ -4862,10 +4873,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="133" t="s">
-        <v>836</v>
-      </c>
-      <c r="B13" s="133" t="s">
+      <c r="A13" s="121" t="s">
+        <v>834</v>
+      </c>
+      <c r="B13" s="121" t="s">
         <v>709</v>
       </c>
       <c r="H13" s="118" t="s">
@@ -4873,7 +4884,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="121" t="s">
         <v>819</v>
       </c>
       <c r="B14" s="95" t="s">
@@ -4884,10 +4895,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
-        <v>837</v>
-      </c>
-      <c r="B15" s="133" t="s">
+      <c r="A15" s="121" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" s="121" t="s">
         <v>649</v>
       </c>
       <c r="H15" s="118" t="s">
@@ -4940,7 +4951,7 @@
       <c r="A19" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="121" t="s">
         <v>817</v>
       </c>
       <c r="C19" s="95" t="s">
@@ -5023,8 +5034,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="133" t="s">
-        <v>838</v>
+      <c r="A26" s="121" t="s">
+        <v>836</v>
       </c>
       <c r="B26" s="95" t="s">
         <v>176</v>
@@ -5037,7 +5048,7 @@
       <c r="A27" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="121" t="s">
         <v>814</v>
       </c>
       <c r="H27" s="118" t="s">
@@ -5084,7 +5095,7 @@
       <c r="A31" s="95" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="121" t="s">
         <v>248</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -5098,7 +5109,7 @@
       <c r="A32" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="121" t="s">
         <v>614</v>
       </c>
       <c r="H32" s="118" t="s">
@@ -5124,7 +5135,7 @@
       <c r="A34" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="121" t="s">
         <v>811</v>
       </c>
       <c r="H34" s="118" t="s">
@@ -5138,7 +5149,7 @@
       <c r="B35" s="88" t="s">
         <v>666</v>
       </c>
-      <c r="C35" s="133" t="s">
+      <c r="C35" s="121" t="s">
         <v>667</v>
       </c>
       <c r="H35" s="118" t="s">
@@ -5160,10 +5171,10 @@
       <c r="A37" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="121" t="s">
         <v>722</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H37" s="118" t="s">
@@ -5177,7 +5188,7 @@
       <c r="B38" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="121" t="s">
         <v>659</v>
       </c>
       <c r="H38" s="118" t="s">
@@ -5196,13 +5207,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
-        <v>839</v>
-      </c>
-      <c r="B40" s="133" t="s">
+      <c r="A40" s="121" t="s">
+        <v>837</v>
+      </c>
+      <c r="B40" s="121" t="s">
         <v>722</v>
       </c>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H40" s="118" t="s">
@@ -5210,10 +5221,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="121" t="s">
         <v>820</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="121" t="s">
         <v>814</v>
       </c>
       <c r="C41" s="70"/>
@@ -5236,7 +5247,7 @@
       <c r="A43" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="121" t="s">
         <v>799</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -5269,10 +5280,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="133" t="s">
-        <v>821</v>
-      </c>
-      <c r="B46" s="133" t="s">
+      <c r="A46" s="137" t="s">
+        <v>894</v>
+      </c>
+      <c r="B46" s="121" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="70" t="s">
@@ -5297,7 +5308,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="133" t="s">
+      <c r="A48" s="121" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="70" t="s">
@@ -5311,8 +5322,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="133" t="s">
-        <v>822</v>
+      <c r="A49" s="121" t="s">
+        <v>821</v>
       </c>
       <c r="B49" s="95" t="s">
         <v>703</v>
@@ -5353,7 +5364,7 @@
       <c r="A52" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="121" t="s">
         <v>816</v>
       </c>
       <c r="C52" s="95" t="s">
@@ -5364,7 +5375,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="133" t="s">
+      <c r="A53" s="121" t="s">
         <v>198</v>
       </c>
       <c r="B53" s="95" t="s">
@@ -5389,7 +5400,7 @@
       <c r="A55" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="121" t="s">
         <v>809</v>
       </c>
       <c r="H55" s="118" t="s">
@@ -5400,7 +5411,7 @@
       <c r="A56" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="121" t="s">
         <v>248</v>
       </c>
       <c r="C56" s="70" t="s">
@@ -5458,13 +5469,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="133" t="s">
-        <v>840</v>
+      <c r="A61" s="121" t="s">
+        <v>838</v>
       </c>
       <c r="B61" s="95" t="s">
         <v>674</v>
       </c>
-      <c r="C61" s="136" t="s">
+      <c r="C61" s="124" t="s">
         <v>751</v>
       </c>
       <c r="F61" s="72"/>
@@ -5516,7 +5527,7 @@
       <c r="A65" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="121" t="s">
         <v>808</v>
       </c>
       <c r="H65" s="118" t="s">
@@ -5527,7 +5538,7 @@
       <c r="A66" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="133" t="s">
+      <c r="B66" s="121" t="s">
         <v>654</v>
       </c>
       <c r="C66" s="95" t="s">
@@ -5541,7 +5552,7 @@
       <c r="A67" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="133" t="s">
+      <c r="B67" s="121" t="s">
         <v>812</v>
       </c>
       <c r="H67" s="118" t="s">
@@ -5552,7 +5563,7 @@
       <c r="A68" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="121" t="s">
         <v>799</v>
       </c>
       <c r="C68" s="70" t="s">
@@ -5577,7 +5588,7 @@
       <c r="A70" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="133" t="s">
+      <c r="B70" s="121" t="s">
         <v>760</v>
       </c>
       <c r="C70" s="70" t="s">
@@ -5591,7 +5602,7 @@
       <c r="A71" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="133" t="s">
+      <c r="B71" s="121" t="s">
         <v>760</v>
       </c>
       <c r="C71" s="70" t="s">
@@ -5605,7 +5616,7 @@
       <c r="A72" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="B72" s="133" t="s">
+      <c r="B72" s="121" t="s">
         <v>255</v>
       </c>
       <c r="C72" s="95" t="s">
@@ -5619,7 +5630,7 @@
       <c r="A73" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="B73" s="133" t="s">
+      <c r="B73" s="121" t="s">
         <v>256</v>
       </c>
       <c r="H73" s="118" t="s">
@@ -5630,7 +5641,7 @@
       <c r="A74" s="95" t="s">
         <v>406</v>
       </c>
-      <c r="B74" s="133" t="s">
+      <c r="B74" s="121" t="s">
         <v>248</v>
       </c>
       <c r="C74" s="70" t="s">
@@ -5641,13 +5652,13 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="133" t="s">
-        <v>841</v>
-      </c>
-      <c r="B75" s="133" t="s">
+      <c r="A75" s="121" t="s">
+        <v>839</v>
+      </c>
+      <c r="B75" s="121" t="s">
         <v>722</v>
       </c>
-      <c r="C75" s="133" t="s">
+      <c r="C75" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H75" s="118" t="s">
@@ -5655,8 +5666,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="133" t="s">
-        <v>842</v>
+      <c r="A76" s="121" t="s">
+        <v>840</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>176</v>
@@ -5683,7 +5694,7 @@
       <c r="A78" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="133" t="s">
+      <c r="B78" s="121" t="s">
         <v>248</v>
       </c>
       <c r="C78" s="70" t="s">
@@ -5694,8 +5705,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="133" t="s">
-        <v>843</v>
+      <c r="A79" s="121" t="s">
+        <v>841</v>
       </c>
       <c r="B79" s="95" t="s">
         <v>253</v>
@@ -5739,8 +5750,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="133" t="s">
-        <v>844</v>
+      <c r="A82" s="121" t="s">
+        <v>842</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>176</v>
@@ -5750,8 +5761,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="133" t="s">
-        <v>845</v>
+      <c r="A83" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>176</v>
@@ -5891,7 +5902,7 @@
       <c r="A94" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="133" t="s">
+      <c r="B94" s="121" t="s">
         <v>811</v>
       </c>
       <c r="H94" s="118" t="s">
@@ -5963,7 +5974,7 @@
       <c r="A100" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="133" t="s">
+      <c r="B100" s="121" t="s">
         <v>760</v>
       </c>
       <c r="C100" s="70" t="s">
@@ -6035,7 +6046,7 @@
       <c r="A106" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="B106" s="133" t="s">
+      <c r="B106" s="121" t="s">
         <v>760</v>
       </c>
       <c r="C106" s="70" t="s">
@@ -6124,7 +6135,7 @@
       <c r="A113" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="133" t="s">
+      <c r="B113" s="121" t="s">
         <v>687</v>
       </c>
       <c r="C113" s="70" t="s">
@@ -6177,7 +6188,7 @@
       <c r="A117" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B117" s="133" t="s">
+      <c r="B117" s="121" t="s">
         <v>816</v>
       </c>
       <c r="C117" s="95" t="s">
@@ -6216,7 +6227,7 @@
       <c r="A120" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="B120" s="133" t="s">
+      <c r="B120" s="121" t="s">
         <v>687</v>
       </c>
       <c r="C120" s="70" t="s">
@@ -6230,7 +6241,7 @@
       <c r="A121" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="B121" s="133" t="s">
+      <c r="B121" s="121" t="s">
         <v>424</v>
       </c>
       <c r="C121" s="95" t="s">
@@ -6242,7 +6253,7 @@
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B122" s="74" t="s">
         <v>689</v>
@@ -6281,7 +6292,7 @@
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B125" s="95" t="s">
         <v>267</v>
@@ -6303,7 +6314,7 @@
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B127" s="95" t="s">
         <v>694</v>
@@ -6326,7 +6337,7 @@
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B128" s="113" t="s">
         <v>176</v>
@@ -6336,10 +6347,10 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="133" t="s">
-        <v>850</v>
-      </c>
-      <c r="B129" s="133" t="s">
+      <c r="A129" s="121" t="s">
+        <v>848</v>
+      </c>
+      <c r="B129" s="121" t="s">
         <v>255</v>
       </c>
       <c r="C129" s="95" t="s">
@@ -6411,7 +6422,7 @@
       <c r="A135" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="B135" s="133" t="s">
+      <c r="B135" s="121" t="s">
         <v>816</v>
       </c>
       <c r="C135" s="95" t="s">
@@ -6422,8 +6433,8 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="133" t="s">
-        <v>851</v>
+      <c r="A136" s="121" t="s">
+        <v>849</v>
       </c>
       <c r="B136" s="95" t="s">
         <v>690</v>
@@ -6495,7 +6506,7 @@
       <c r="A141" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="B141" s="133" t="s">
+      <c r="B141" s="121" t="s">
         <v>289</v>
       </c>
       <c r="C141" s="70" t="s">
@@ -6507,7 +6518,7 @@
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B142" s="113" t="s">
         <v>254</v>
@@ -6531,7 +6542,7 @@
       <c r="A144" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="B144" s="133" t="s">
+      <c r="B144" s="121" t="s">
         <v>687</v>
       </c>
       <c r="C144" s="95" t="s">
@@ -6544,7 +6555,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B145" s="95" t="s">
         <v>662</v>
@@ -6568,8 +6579,8 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="133" t="s">
-        <v>853</v>
+      <c r="A147" s="121" t="s">
+        <v>851</v>
       </c>
       <c r="B147" s="95" t="s">
         <v>649</v>
@@ -6616,7 +6627,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B151" s="95" t="s">
         <v>690</v>
@@ -6632,7 +6643,7 @@
       <c r="A152" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="133" t="s">
+      <c r="B152" s="121" t="s">
         <v>818</v>
       </c>
       <c r="C152" s="74" t="s">
@@ -6646,7 +6657,7 @@
       <c r="A153" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="133" t="s">
+      <c r="B153" s="121" t="s">
         <v>760</v>
       </c>
       <c r="C153" s="70" t="s">
@@ -6660,10 +6671,10 @@
       <c r="A154" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="B154" s="133" t="s">
+      <c r="B154" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="C154" s="133" t="s">
+      <c r="C154" s="121" t="s">
         <v>676</v>
       </c>
       <c r="H154" s="118" t="s">
@@ -6683,9 +6694,9 @@
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
-        <v>855</v>
-      </c>
-      <c r="B156" s="133" t="s">
+        <v>853</v>
+      </c>
+      <c r="B156" s="121" t="s">
         <v>818</v>
       </c>
       <c r="C156" s="74" t="s">
@@ -6783,7 +6794,7 @@
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B164" s="70" t="s">
         <v>682</v>
@@ -6813,7 +6824,7 @@
       <c r="A166" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="B166" s="133" t="s">
+      <c r="B166" s="121" t="s">
         <v>801</v>
       </c>
       <c r="H166" s="118" t="s">
@@ -6838,7 +6849,7 @@
       <c r="A168" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="B168" s="133" t="s">
+      <c r="B168" s="121" t="s">
         <v>803</v>
       </c>
       <c r="H168" s="118" t="s">
@@ -6849,7 +6860,7 @@
       <c r="A169" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="B169" s="133" t="s">
+      <c r="B169" s="121" t="s">
         <v>256</v>
       </c>
       <c r="H169" s="118" t="s">
@@ -6871,7 +6882,7 @@
       <c r="A171" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B171" s="133" t="s">
+      <c r="B171" s="121" t="s">
         <v>248</v>
       </c>
       <c r="C171" s="70" t="s">
@@ -6897,7 +6908,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B173" s="113" t="s">
         <v>176</v>
@@ -6954,7 +6965,7 @@
       <c r="A178" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="B178" s="133" t="s">
+      <c r="B178" s="121" t="s">
         <v>255</v>
       </c>
       <c r="C178" s="95" t="s">
@@ -7092,7 +7103,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B189" s="70" t="s">
         <v>437</v>
@@ -7108,7 +7119,7 @@
       <c r="A190" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B190" s="133" t="s">
+      <c r="B190" s="121" t="s">
         <v>687</v>
       </c>
       <c r="C190" s="70" t="s">
@@ -7145,7 +7156,7 @@
       <c r="A193" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B193" s="133" t="s">
+      <c r="B193" s="121" t="s">
         <v>255</v>
       </c>
       <c r="C193" s="95" t="s">
@@ -7168,7 +7179,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B195" s="70" t="s">
         <v>693</v>
@@ -7258,8 +7269,8 @@
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="133" t="s">
-        <v>860</v>
+      <c r="A201" s="121" t="s">
+        <v>858</v>
       </c>
       <c r="B201" s="95" t="s">
         <v>694</v>
@@ -7330,8 +7341,8 @@
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="133" t="s">
-        <v>862</v>
+      <c r="A205" s="121" t="s">
+        <v>860</v>
       </c>
       <c r="B205" s="113" t="s">
         <v>714</v>
@@ -7344,8 +7355,8 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="133" t="s">
-        <v>863</v>
+      <c r="A206" s="121" t="s">
+        <v>861</v>
       </c>
       <c r="B206" s="95" t="s">
         <v>716</v>
@@ -7367,8 +7378,8 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="133" t="s">
-        <v>861</v>
+      <c r="A207" s="121" t="s">
+        <v>859</v>
       </c>
       <c r="B207" s="95" t="s">
         <v>253</v>
@@ -7443,7 +7454,7 @@
       <c r="A212" s="95" t="s">
         <v>421</v>
       </c>
-      <c r="B212" s="133" t="s">
+      <c r="B212" s="121" t="s">
         <v>719</v>
       </c>
       <c r="C212" s="113" t="s">
@@ -7460,7 +7471,7 @@
       <c r="A213" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="B213" s="133" t="s">
+      <c r="B213" s="121" t="s">
         <v>424</v>
       </c>
       <c r="C213" s="95" t="s">
@@ -7475,7 +7486,7 @@
       <c r="A214" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="B214" s="133" t="s">
+      <c r="B214" s="121" t="s">
         <v>455</v>
       </c>
       <c r="C214" s="70" t="s">
@@ -7489,7 +7500,7 @@
       <c r="A215" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="B215" s="133" t="s">
+      <c r="B215" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C215" s="95" t="s">
@@ -7521,7 +7532,7 @@
       <c r="A217" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="B217" s="133" t="s">
+      <c r="B217" s="121" t="s">
         <v>255</v>
       </c>
       <c r="C217" s="78" t="s">
@@ -7547,8 +7558,8 @@
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="133" t="s">
-        <v>864</v>
+      <c r="A219" s="121" t="s">
+        <v>862</v>
       </c>
       <c r="B219" s="95" t="s">
         <v>667</v>
@@ -7586,7 +7597,7 @@
       <c r="B221" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="C221" s="136" t="s">
+      <c r="C221" s="124" t="s">
         <v>751</v>
       </c>
       <c r="H221" s="118" t="s">
@@ -7594,8 +7605,8 @@
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="133" t="s">
-        <v>865</v>
+      <c r="A222" s="121" t="s">
+        <v>863</v>
       </c>
       <c r="B222" s="95" t="s">
         <v>662</v>
@@ -7675,8 +7686,8 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="133" t="s">
-        <v>866</v>
+      <c r="A228" s="121" t="s">
+        <v>864</v>
       </c>
       <c r="B228" s="95" t="s">
         <v>690</v>
@@ -7860,7 +7871,7 @@
       <c r="A240" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="B240" s="134" t="s">
+      <c r="B240" s="122" t="s">
         <v>704</v>
       </c>
       <c r="C240" s="110" t="s">
@@ -7949,7 +7960,7 @@
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="70" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B246" s="70" t="s">
         <v>672</v>
@@ -7965,7 +7976,7 @@
       <c r="A247" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B247" s="133" t="s">
+      <c r="B247" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C247" s="70" t="s">
@@ -7982,7 +7993,7 @@
       <c r="A248" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="B248" s="135" t="s">
+      <c r="B248" s="123" t="s">
         <v>704</v>
       </c>
       <c r="C248" s="99" t="s">
@@ -8054,7 +8065,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B252" s="70"/>
       <c r="C252" s="70"/>
@@ -8082,7 +8093,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B254" s="70" t="s">
         <v>461</v>
@@ -8121,7 +8132,7 @@
       <c r="B256" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="C256" s="136" t="s">
+      <c r="C256" s="124" t="s">
         <v>751</v>
       </c>
       <c r="D256" s="70"/>
@@ -8199,7 +8210,7 @@
       <c r="B261" s="70" t="s">
         <v>739</v>
       </c>
-      <c r="C261" s="136" t="s">
+      <c r="C261" s="124" t="s">
         <v>785</v>
       </c>
       <c r="D261" s="70"/>
@@ -8210,7 +8221,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="70" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B262" s="70" t="s">
         <v>480</v>
@@ -8298,7 +8309,7 @@
       <c r="A267" s="70" t="s">
         <v>497</v>
       </c>
-      <c r="B267" s="133" t="s">
+      <c r="B267" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C267" s="70" t="s">
@@ -8316,7 +8327,7 @@
       <c r="A268" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B268" s="133" t="s">
+      <c r="B268" s="121" t="s">
         <v>818</v>
       </c>
       <c r="C268" s="74" t="s">
@@ -8354,7 +8365,7 @@
       <c r="C270" s="70" t="s">
         <v>659</v>
       </c>
-      <c r="D270" s="133" t="s">
+      <c r="D270" s="121" t="s">
         <v>764</v>
       </c>
       <c r="E270" s="70" t="s">
@@ -8366,7 +8377,7 @@
     </row>
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="70" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B271" s="70" t="s">
         <v>427</v>
@@ -8386,7 +8397,7 @@
       <c r="A272" s="70" t="s">
         <v>514</v>
       </c>
-      <c r="B272" s="133" t="s">
+      <c r="B272" s="121" t="s">
         <v>760</v>
       </c>
       <c r="C272" s="70" t="s">
@@ -8402,7 +8413,7 @@
       <c r="A273" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="B273" s="133" t="s">
+      <c r="B273" s="121" t="s">
         <v>719</v>
       </c>
       <c r="C273" s="113" t="s">
@@ -8420,7 +8431,7 @@
       <c r="A274" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="B274" s="133" t="s">
+      <c r="B274" s="121" t="s">
         <v>719</v>
       </c>
       <c r="C274" s="113" t="s">
@@ -8440,7 +8451,7 @@
       <c r="A275" s="70" t="s">
         <v>512</v>
       </c>
-      <c r="B275" s="133" t="s">
+      <c r="B275" s="121" t="s">
         <v>818</v>
       </c>
       <c r="C275" s="74" t="s">
@@ -8532,7 +8543,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="70" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B281" s="70" t="s">
         <v>415</v>
@@ -8582,7 +8593,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="70" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B284" s="70" t="s">
         <v>732</v>
@@ -8600,9 +8611,9 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="70" t="s">
-        <v>873</v>
-      </c>
-      <c r="B285" s="133" t="s">
+        <v>871</v>
+      </c>
+      <c r="B285" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C285" s="70" t="s">
@@ -8700,7 +8711,7 @@
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="70" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B291" s="70" t="s">
         <v>748</v>
@@ -8737,7 +8748,7 @@
       <c r="B293" s="70" t="s">
         <v>753</v>
       </c>
-      <c r="C293" s="133" t="s">
+      <c r="C293" s="121" t="s">
         <v>749</v>
       </c>
       <c r="H293" s="118" t="s">
@@ -8751,7 +8762,7 @@
       <c r="B294" s="70" t="s">
         <v>753</v>
       </c>
-      <c r="C294" s="133" t="s">
+      <c r="C294" s="121" t="s">
         <v>749</v>
       </c>
       <c r="H294" s="118" t="s">
@@ -8762,7 +8773,7 @@
       <c r="A295" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="B295" s="133" t="s">
+      <c r="B295" s="121" t="s">
         <v>805</v>
       </c>
       <c r="H295" s="118" t="s">
@@ -8785,7 +8796,7 @@
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="70" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B297" s="95" t="s">
         <v>744</v>
@@ -8799,7 +8810,7 @@
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="70" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B298" s="95" t="s">
         <v>744</v>
@@ -8812,8 +8823,8 @@
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="133" t="s">
-        <v>877</v>
+      <c r="A299" s="121" t="s">
+        <v>875</v>
       </c>
       <c r="B299" s="95" t="s">
         <v>751</v>
@@ -8844,7 +8855,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="70" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B301" s="70" t="s">
         <v>665</v>
@@ -8872,7 +8883,7 @@
       <c r="C302" s="70" t="s">
         <v>671</v>
       </c>
-      <c r="D302" s="134" t="s">
+      <c r="D302" s="122" t="s">
         <v>749</v>
       </c>
       <c r="H302" s="118" t="s">
@@ -8913,7 +8924,7 @@
     </row>
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="70" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B305" s="95" t="s">
         <v>706</v>
@@ -8940,7 +8951,7 @@
       <c r="A307" s="70" t="s">
         <v>531</v>
       </c>
-      <c r="B307" s="133" t="s">
+      <c r="B307" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C307" s="95" t="s">
@@ -9014,7 +9025,7 @@
       <c r="B312" s="117" t="s">
         <v>741</v>
       </c>
-      <c r="C312" s="136" t="s">
+      <c r="C312" s="124" t="s">
         <v>751</v>
       </c>
       <c r="H312" s="118" t="s">
@@ -9048,7 +9059,7 @@
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="70" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B315" s="95" t="s">
         <v>755</v>
@@ -9076,7 +9087,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B317" s="95" t="s">
         <v>757</v>
@@ -9159,7 +9170,7 @@
       <c r="A323" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="B323" s="133" t="s">
+      <c r="B323" s="121" t="s">
         <v>818</v>
       </c>
       <c r="C323" s="74" t="s">
@@ -9184,7 +9195,7 @@
       <c r="A325" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="B325" s="133" t="s">
+      <c r="B325" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C325" s="70" t="s">
@@ -9257,7 +9268,7 @@
       <c r="A330" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="B330" s="135" t="s">
+      <c r="B330" s="123" t="s">
         <v>800</v>
       </c>
       <c r="H330" s="118" t="s">
@@ -9266,7 +9277,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="70" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B331" s="95" t="s">
         <v>663</v>
@@ -9311,7 +9322,7 @@
     </row>
     <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="114" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B334" s="113" t="s">
         <v>649</v>
@@ -9409,12 +9420,12 @@
     </row>
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="70" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B342" s="70" t="s">
         <v>753</v>
       </c>
-      <c r="C342" s="133" t="s">
+      <c r="C342" s="121" t="s">
         <v>749</v>
       </c>
       <c r="H342" s="118" t="s">
@@ -9423,7 +9434,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B343" s="97" t="s">
         <v>720</v>
@@ -9442,10 +9453,10 @@
       <c r="A344" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="B344" s="133" t="s">
+      <c r="B344" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="C344" s="133" t="s">
+      <c r="C344" s="121" t="s">
         <v>659</v>
       </c>
       <c r="D344" s="95" t="s">
@@ -9459,7 +9470,7 @@
       <c r="A345" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="B345" s="135" t="s">
+      <c r="B345" s="123" t="s">
         <v>800</v>
       </c>
       <c r="C345" s="97" t="s">
@@ -9473,8 +9484,8 @@
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A346" s="135" t="s">
-        <v>884</v>
+      <c r="A346" s="123" t="s">
+        <v>882</v>
       </c>
       <c r="B346" s="95" t="s">
         <v>727</v>
@@ -9482,7 +9493,7 @@
       <c r="C346" s="95" t="s">
         <v>686</v>
       </c>
-      <c r="D346" s="135" t="s">
+      <c r="D346" s="123" t="s">
         <v>800</v>
       </c>
       <c r="H346" s="118" t="s">
@@ -9493,10 +9504,10 @@
       <c r="A347" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="B347" s="133" t="s">
+      <c r="B347" s="121" t="s">
         <v>802</v>
       </c>
-      <c r="C347" s="133" t="s">
+      <c r="C347" s="121" t="s">
         <v>765</v>
       </c>
       <c r="H347" s="118" t="s">
@@ -9530,7 +9541,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="70" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B350" s="113" t="s">
         <v>768</v>
@@ -9541,9 +9552,9 @@
     </row>
     <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="70" t="s">
-        <v>825</v>
-      </c>
-      <c r="B351" s="133" t="s">
+        <v>824</v>
+      </c>
+      <c r="B351" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C351" s="70" t="s">
@@ -9557,7 +9568,7 @@
       <c r="A352" s="70" t="s">
         <v>569</v>
       </c>
-      <c r="B352" s="133" t="s">
+      <c r="B352" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C352" s="95" t="s">
@@ -9583,7 +9594,7 @@
     </row>
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="70" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B354" s="113" t="s">
         <v>770</v>
@@ -9647,7 +9658,7 @@
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="70" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B359" s="113" t="s">
         <v>649</v>
@@ -9705,7 +9716,7 @@
       <c r="B363" s="95" t="s">
         <v>772</v>
       </c>
-      <c r="C363" s="135" t="s">
+      <c r="C363" s="123" t="s">
         <v>800</v>
       </c>
       <c r="D363" s="74" t="s">
@@ -9717,7 +9728,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B364" s="95" t="s">
         <v>651</v>
@@ -9754,7 +9765,7 @@
       <c r="C366" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="D366" s="136" t="s">
+      <c r="D366" s="124" t="s">
         <v>785</v>
       </c>
       <c r="E366" s="70"/>
@@ -9764,7 +9775,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="70" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B367" s="95" t="s">
         <v>774</v>
@@ -9778,7 +9789,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="70" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B368" s="89" t="s">
         <v>437</v>
@@ -9792,8 +9803,8 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A369" s="135" t="s">
-        <v>830</v>
+      <c r="A369" s="123" t="s">
+        <v>829</v>
       </c>
       <c r="B369" s="97" t="s">
         <v>663</v>
@@ -9807,7 +9818,7 @@
     </row>
     <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="70" t="s">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="B370" s="70" t="s">
         <v>672</v>
@@ -9821,7 +9832,7 @@
     </row>
     <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="92" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B371" s="89" t="s">
         <v>679</v>
@@ -9834,8 +9845,8 @@
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="133" t="s">
-        <v>832</v>
+      <c r="A372" s="121" t="s">
+        <v>831</v>
       </c>
       <c r="B372" s="95" t="s">
         <v>679</v>
@@ -9843,7 +9854,7 @@
       <c r="C372" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="D372" s="136" t="s">
+      <c r="D372" s="124" t="s">
         <v>785</v>
       </c>
       <c r="H372" s="118" t="s">
@@ -9852,7 +9863,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="70" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B373" s="89" t="s">
         <v>437</v>
@@ -9875,7 +9886,7 @@
       <c r="C374" s="95" t="s">
         <v>771</v>
       </c>
-      <c r="D374" s="136" t="s">
+      <c r="D374" s="124" t="s">
         <v>785</v>
       </c>
       <c r="H374" s="118" t="s">
@@ -9911,7 +9922,7 @@
       <c r="A377" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B377" s="133" t="s">
+      <c r="B377" s="121" t="s">
         <v>810</v>
       </c>
       <c r="H377" s="118" t="s">
@@ -9979,7 +9990,7 @@
       <c r="C382" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="D382" s="133" t="s">
+      <c r="D382" s="121" t="s">
         <v>677</v>
       </c>
       <c r="H382" s="118" t="s">
@@ -9993,7 +10004,7 @@
       <c r="B383" s="70" t="s">
         <v>779</v>
       </c>
-      <c r="C383" s="136" t="s">
+      <c r="C383" s="124" t="s">
         <v>785</v>
       </c>
       <c r="D383" s="111"/>
@@ -10030,7 +10041,7 @@
       <c r="C385" s="70" t="s">
         <v>777</v>
       </c>
-      <c r="D385" s="136" t="s">
+      <c r="D385" s="124" t="s">
         <v>785</v>
       </c>
       <c r="H385" s="118" t="s">
@@ -10058,7 +10069,7 @@
       <c r="B387" s="95" t="s">
         <v>674</v>
       </c>
-      <c r="C387" s="136" t="s">
+      <c r="C387" s="124" t="s">
         <v>751</v>
       </c>
       <c r="H387" s="118" t="s">
@@ -10072,7 +10083,7 @@
       <c r="B388" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="C388" s="136" t="s">
+      <c r="C388" s="124" t="s">
         <v>751</v>
       </c>
       <c r="D388" s="89"/>
@@ -10123,7 +10134,7 @@
     </row>
     <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="70" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B392" s="113" t="s">
         <v>649</v>
@@ -10164,10 +10175,10 @@
       <c r="A395" s="70" t="s">
         <v>600</v>
       </c>
-      <c r="B395" s="133" t="s">
+      <c r="B395" s="121" t="s">
         <v>722</v>
       </c>
-      <c r="C395" s="133" t="s">
+      <c r="C395" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H395" s="118" t="s">
@@ -10178,7 +10189,7 @@
       <c r="A396" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="B396" s="133" t="s">
+      <c r="B396" s="121" t="s">
         <v>696</v>
       </c>
       <c r="C396" s="95" t="s">
@@ -10268,9 +10279,9 @@
     </row>
     <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
-        <v>889</v>
-      </c>
-      <c r="B403" s="133" t="s">
+        <v>887</v>
+      </c>
+      <c r="B403" s="121" t="s">
         <v>811</v>
       </c>
       <c r="H403" s="118" t="s">
@@ -10296,7 +10307,7 @@
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="70" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B405" s="113" t="s">
         <v>700</v>
@@ -10445,7 +10456,7 @@
       <c r="A416" s="70" t="s">
         <v>623</v>
       </c>
-      <c r="B416" s="133" t="s">
+      <c r="B416" s="121" t="s">
         <v>807</v>
       </c>
       <c r="H416" s="118" t="s">
@@ -10534,10 +10545,10 @@
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A423" s="133" t="s">
-        <v>891</v>
-      </c>
-      <c r="B423" s="133" t="s">
+      <c r="A423" s="121" t="s">
+        <v>889</v>
+      </c>
+      <c r="B423" s="121" t="s">
         <v>719</v>
       </c>
       <c r="C423" s="74" t="s">
@@ -10565,7 +10576,7 @@
       <c r="B425" s="70" t="s">
         <v>753</v>
       </c>
-      <c r="C425" s="133" t="s">
+      <c r="C425" s="121" t="s">
         <v>749</v>
       </c>
       <c r="H425" s="118" t="s">
@@ -10596,7 +10607,7 @@
       <c r="C427" s="107" t="s">
         <v>677</v>
       </c>
-      <c r="D427" s="133" t="s">
+      <c r="D427" s="121" t="s">
         <v>648</v>
       </c>
       <c r="H427" s="118" t="s">
@@ -10633,7 +10644,7 @@
     </row>
     <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="70" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B430" s="113" t="s">
         <v>649</v>
@@ -10644,7 +10655,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B431" s="74" t="s">
         <v>690</v>
@@ -10656,7 +10667,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="70" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B432" s="74" t="s">
         <v>690</v>
@@ -10672,7 +10683,7 @@
       <c r="A433" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="B433" s="133" t="s">
+      <c r="B433" s="121" t="s">
         <v>640</v>
       </c>
       <c r="C433" s="70" t="s">
@@ -10698,12 +10709,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10759,22 +10770,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="132" t="s">
         <v>246</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="133">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="122"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -10782,22 +10793,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="132" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="133">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="133"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -10805,22 +10816,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="132" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="133">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="122"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="133"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -10828,22 +10839,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="132" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="123">
+      <c r="C12" s="133">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="122"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="133"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -10865,22 +10876,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="132" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="123">
+      <c r="C17" s="133">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="122"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="133"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -10910,7 +10921,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="123">
+      <c r="C22" s="133">
         <v>45019</v>
       </c>
     </row>
@@ -10921,12 +10932,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="123"/>
+      <c r="C23" s="133"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="123"/>
+      <c r="C24" s="133"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11606,7 +11617,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="128">
+      <c r="C114" s="136">
         <v>45442</v>
       </c>
     </row>
@@ -11617,7 +11628,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="128"/>
+      <c r="C115" s="136"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11626,7 +11637,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="128"/>
+      <c r="C116" s="136"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11635,7 +11646,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="128"/>
+      <c r="C117" s="136"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11644,7 +11655,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="128"/>
+      <c r="C118" s="136"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11653,7 +11664,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="128"/>
+      <c r="C119" s="136"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11662,7 +11673,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="128"/>
+      <c r="C120" s="136"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11671,7 +11682,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="128"/>
+      <c r="C121" s="136"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11680,7 +11691,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="128"/>
+      <c r="C122" s="136"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -11689,7 +11700,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="128"/>
+      <c r="C123" s="136"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -11698,7 +11709,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="128"/>
+      <c r="C124" s="136"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -11733,7 +11744,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="126">
+      <c r="C129" s="134">
         <v>45485</v>
       </c>
     </row>
@@ -11744,7 +11755,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="127"/>
+      <c r="C130" s="135"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -11753,7 +11764,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="127"/>
+      <c r="C131" s="135"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -11762,7 +11773,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="127"/>
+      <c r="C132" s="135"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -11776,7 +11787,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="126">
+      <c r="C134" s="134">
         <v>45485</v>
       </c>
     </row>
@@ -11787,7 +11798,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="126"/>
+      <c r="C135" s="134"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -11796,7 +11807,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="126"/>
+      <c r="C136" s="134"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -11824,7 +11835,7 @@
         <v>340</v>
       </c>
       <c r="B140" s="38"/>
-      <c r="C140" s="124">
+      <c r="C140" s="128">
         <v>45503</v>
       </c>
     </row>
@@ -11833,21 +11844,21 @@
         <v>341</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="125"/>
+      <c r="C141" s="126"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>342</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="125"/>
+      <c r="C142" s="126"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>343</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="125"/>
+      <c r="C143" s="126"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12138,14 +12149,14 @@
       <c r="B180" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C180" s="121">
+      <c r="C180" s="131">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="121"/>
+      <c r="C181" s="131"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12154,12 +12165,12 @@
       <c r="B182" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C182" s="121"/>
+      <c r="C182" s="131"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="121"/>
+      <c r="C183" s="131"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12168,12 +12179,12 @@
       <c r="B184" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C184" s="121"/>
+      <c r="C184" s="131"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="121"/>
+      <c r="C185" s="131"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12182,12 +12193,12 @@
       <c r="B186" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="C186" s="121"/>
+      <c r="C186" s="131"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="121"/>
+      <c r="C187" s="131"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12196,7 +12207,7 @@
       <c r="B188" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="C188" s="121"/>
+      <c r="C188" s="131"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12223,10 +12234,10 @@
       <c r="A192" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B192" s="129" t="s">
+      <c r="B192" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="124">
+      <c r="C192" s="128">
         <v>45610</v>
       </c>
     </row>
@@ -12234,22 +12245,22 @@
       <c r="A193" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="B193" s="129"/>
-      <c r="C193" s="125"/>
+      <c r="B193" s="125"/>
+      <c r="C193" s="126"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B194" s="129"/>
-      <c r="C194" s="125"/>
+      <c r="B194" s="125"/>
+      <c r="C194" s="126"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B195" s="129"/>
-      <c r="C195" s="125"/>
+      <c r="B195" s="125"/>
+      <c r="C195" s="126"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12260,10 +12271,10 @@
       <c r="A197" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="B197" s="129" t="s">
+      <c r="B197" s="125" t="s">
         <v>373</v>
       </c>
-      <c r="C197" s="131">
+      <c r="C197" s="129">
         <v>45614</v>
       </c>
     </row>
@@ -12271,15 +12282,15 @@
       <c r="A198" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="B198" s="129"/>
-      <c r="C198" s="132"/>
+      <c r="B198" s="125"/>
+      <c r="C198" s="130"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="B199" s="129"/>
-      <c r="C199" s="132"/>
+      <c r="B199" s="125"/>
+      <c r="C199" s="130"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12290,7 +12301,7 @@
       <c r="A201" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="B201" s="129" t="s">
+      <c r="B201" s="125" t="s">
         <v>385</v>
       </c>
       <c r="C201" s="39">
@@ -12301,50 +12312,50 @@
       <c r="A202" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B202" s="129"/>
-      <c r="C202" s="125"/>
+      <c r="B202" s="125"/>
+      <c r="C202" s="126"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B203" s="129"/>
-      <c r="C203" s="125"/>
+      <c r="B203" s="125"/>
+      <c r="C203" s="126"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B204" s="129"/>
-      <c r="C204" s="125"/>
+      <c r="B204" s="125"/>
+      <c r="C204" s="126"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B205" s="129"/>
-      <c r="C205" s="125"/>
+      <c r="B205" s="125"/>
+      <c r="C205" s="126"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B206" s="129"/>
-      <c r="C206" s="125"/>
+      <c r="B206" s="125"/>
+      <c r="C206" s="126"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="B207" s="129"/>
-      <c r="C207" s="125"/>
+      <c r="B207" s="125"/>
+      <c r="C207" s="126"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="B208" s="129"/>
-      <c r="C208" s="125"/>
+      <c r="B208" s="125"/>
+      <c r="C208" s="126"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12356,7 +12367,7 @@
         <v>389</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="125" t="s">
+      <c r="C210" s="126" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12365,7 +12376,7 @@
         <v>387</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="130"/>
+      <c r="C211" s="127"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12454,25 +12465,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -12489,6 +12493,13 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E40B72A-D59D-4D1A-99A8-79587F086245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAEEC5-58AC-4C81-94BE-B86E43C93722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1873,9 +1873,6 @@
     <t>Тарифы банка</t>
   </si>
   <si>
-    <t>Ограничение/приостановление по счетам , по карте</t>
-  </si>
-  <si>
     <t>Активировать приложение</t>
   </si>
   <si>
@@ -2856,7 +2853,10 @@
     <t>Забыл пароль|сменить пароль я не помню пароль</t>
   </si>
   <si>
-    <t>Снять деньги в офисе/ в кассе/ у операциониста</t>
+    <t>Ограничение по счетам/карте| приостановление по счетам/ карте</t>
+  </si>
+  <si>
+    <t>Снять деньги в офисе| снять деньги в кассе/ у операциониста</t>
   </si>
 </sst>
 </file>
@@ -3735,7 +3735,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>308904</xdr:rowOff>
+      <xdr:rowOff>308905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3783,7 +3783,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>308904</xdr:rowOff>
+      <xdr:rowOff>308905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3975,7 +3975,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>126150</xdr:rowOff>
+      <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4701,28 +4701,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="120" t="s">
         <v>791</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>792</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="D1" s="119" t="s">
         <v>793</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="E1" s="119" t="s">
         <v>794</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="F1" s="119" t="s">
         <v>795</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="G1" s="119" t="s">
         <v>796</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="H1" s="119" t="s">
         <v>797</v>
-      </c>
-      <c r="H1" s="119" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4730,13 +4730,13 @@
         <v>540</v>
       </c>
       <c r="B2" s="95" t="s">
+        <v>647</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>648</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>649</v>
-      </c>
       <c r="H2" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4744,16 +4744,16 @@
         <v>541</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>418</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.3">
@@ -4761,17 +4761,17 @@
         <v>542</v>
       </c>
       <c r="B4" s="95" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="121" t="s">
         <v>651</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>652</v>
       </c>
       <c r="D4" s="95"/>
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4779,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4790,10 +4790,10 @@
         <v>227</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4801,14 +4801,14 @@
         <v>250</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4819,7 +4819,7 @@
         <v>176</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4827,13 +4827,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C9" s="110" t="s">
         <v>249</v>
       </c>
       <c r="H9" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4841,13 +4841,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C10" s="110" t="s">
         <v>249</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4855,10 +4855,10 @@
         <v>320</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H11" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4869,40 +4869,40 @@
         <v>249</v>
       </c>
       <c r="H12" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
-        <v>834</v>
+      <c r="A13" s="137" t="s">
+        <v>833</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="121" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="121" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H15" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4910,7 +4910,7 @@
         <v>183</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C16" s="110" t="s">
         <v>545</v>
@@ -4919,18 +4919,18 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H17" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4938,13 +4938,13 @@
         <v>184</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C18" s="97" t="s">
         <v>247</v>
       </c>
       <c r="H18" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4952,13 +4952,13 @@
         <v>185</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4969,7 +4969,7 @@
         <v>176</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4980,7 +4980,7 @@
         <v>176</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4988,10 +4988,10 @@
         <v>188</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4999,13 +4999,13 @@
         <v>189</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5013,13 +5013,13 @@
         <v>190</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C24" s="110" t="s">
         <v>249</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -5030,18 +5030,18 @@
         <v>176</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="121" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B26" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -5049,10 +5049,10 @@
         <v>192</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H27" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5063,10 +5063,10 @@
         <v>437</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H28" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5074,21 +5074,21 @@
         <v>400</v>
       </c>
       <c r="B29" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H29" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="95" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H30" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5099,10 +5099,10 @@
         <v>248</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H31" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -5110,10 +5110,10 @@
         <v>403</v>
       </c>
       <c r="B32" s="121" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H32" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -5121,14 +5121,14 @@
         <v>280</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C33" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5136,10 +5136,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="121" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H34" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5147,24 +5147,24 @@
         <v>182</v>
       </c>
       <c r="B35" s="88" t="s">
+        <v>665</v>
+      </c>
+      <c r="C35" s="121" t="s">
         <v>666</v>
       </c>
-      <c r="C35" s="121" t="s">
-        <v>667</v>
-      </c>
       <c r="H35" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H36" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5172,13 +5172,13 @@
         <v>179</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C37" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H37" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -5189,10 +5189,10 @@
         <v>251</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H38" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -5203,33 +5203,33 @@
         <v>176</v>
       </c>
       <c r="H39" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="121" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B40" s="121" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C40" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H40" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="121" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B41" s="121" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -5240,7 +5240,7 @@
         <v>176</v>
       </c>
       <c r="H42" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -5248,13 +5248,13 @@
         <v>194</v>
       </c>
       <c r="B43" s="121" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H43" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>176</v>
       </c>
       <c r="H44" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5273,10 +5273,10 @@
         <v>196</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H45" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5284,13 +5284,13 @@
         <v>894</v>
       </c>
       <c r="B46" s="121" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H46" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -5298,38 +5298,38 @@
         <v>103</v>
       </c>
       <c r="B47" s="95" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C47" s="110" t="s">
         <v>249</v>
       </c>
       <c r="H47" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="137" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H48" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="121" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H49" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5337,16 +5337,16 @@
         <v>178</v>
       </c>
       <c r="B50" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D50" s="110" t="s">
         <v>253</v>
       </c>
       <c r="H50" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
         <v>176</v>
       </c>
       <c r="H51" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5365,13 +5365,13 @@
         <v>197</v>
       </c>
       <c r="B52" s="121" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C52" s="95" t="s">
         <v>454</v>
       </c>
       <c r="H52" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>176</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -5393,7 +5393,7 @@
         <v>176</v>
       </c>
       <c r="H54" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5401,10 +5401,10 @@
         <v>220</v>
       </c>
       <c r="B55" s="121" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H55" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -5415,10 +5415,10 @@
         <v>248</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H56" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -5429,7 +5429,7 @@
         <v>176</v>
       </c>
       <c r="H57" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5437,13 +5437,13 @@
         <v>114</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C58" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H58" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -5454,7 +5454,7 @@
         <v>176</v>
       </c>
       <c r="H59" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5462,26 +5462,26 @@
         <v>202</v>
       </c>
       <c r="B60" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H60" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="121" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C61" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5489,13 +5489,13 @@
         <v>116</v>
       </c>
       <c r="B62" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5506,7 +5506,7 @@
         <v>252</v>
       </c>
       <c r="H63" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5514,13 +5514,13 @@
         <v>204</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5528,10 +5528,10 @@
         <v>205</v>
       </c>
       <c r="B65" s="121" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H65" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -5539,13 +5539,13 @@
         <v>206</v>
       </c>
       <c r="B66" s="121" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C66" s="95" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H66" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5553,10 +5553,10 @@
         <v>207</v>
       </c>
       <c r="B67" s="121" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H67" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5564,13 +5564,13 @@
         <v>208</v>
       </c>
       <c r="B68" s="121" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H68" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5581,7 +5581,7 @@
         <v>176</v>
       </c>
       <c r="H69" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5589,13 +5589,13 @@
         <v>210</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H70" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5603,13 +5603,13 @@
         <v>211</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H71" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -5620,10 +5620,10 @@
         <v>255</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -5634,7 +5634,7 @@
         <v>256</v>
       </c>
       <c r="H73" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -5645,35 +5645,35 @@
         <v>248</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H74" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="121" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C75" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H75" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="121" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H76" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -5681,13 +5681,13 @@
         <v>217</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H77" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -5698,30 +5698,30 @@
         <v>248</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H78" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="121" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B79" s="95" t="s">
         <v>253</v>
       </c>
       <c r="C79" s="95" t="s">
+        <v>678</v>
+      </c>
+      <c r="D79" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="D79" s="95" t="s">
-        <v>680</v>
-      </c>
       <c r="E79" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H79" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5732,7 +5732,7 @@
         <v>176</v>
       </c>
       <c r="H80" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5740,35 +5740,35 @@
         <v>215</v>
       </c>
       <c r="B81" s="70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H81" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="121" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H82" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="121" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5776,13 +5776,13 @@
         <v>214</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C84" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5790,36 +5790,36 @@
         <v>121</v>
       </c>
       <c r="B85" s="70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5830,7 +5830,7 @@
         <v>176</v>
       </c>
       <c r="H88" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5841,7 +5841,7 @@
         <v>176</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5849,14 +5849,14 @@
         <v>224</v>
       </c>
       <c r="B90" s="113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C90" s="79"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5867,7 +5867,7 @@
         <v>176</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5875,13 +5875,13 @@
         <v>159</v>
       </c>
       <c r="B92" s="95" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="110" t="s">
         <v>683</v>
       </c>
-      <c r="C92" s="110" t="s">
-        <v>684</v>
-      </c>
       <c r="H92" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5892,10 +5892,10 @@
         <v>247</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H93" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5903,10 +5903,10 @@
         <v>158</v>
       </c>
       <c r="B94" s="121" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H94" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5914,13 +5914,13 @@
         <v>221</v>
       </c>
       <c r="B95" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C95" s="110" t="s">
         <v>253</v>
       </c>
       <c r="H95" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -5931,10 +5931,10 @@
         <v>247</v>
       </c>
       <c r="C96" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H96" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -5945,7 +5945,7 @@
         <v>176</v>
       </c>
       <c r="H97" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -5956,7 +5956,7 @@
         <v>176</v>
       </c>
       <c r="H98" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5967,7 +5967,7 @@
         <v>176</v>
       </c>
       <c r="H99" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5975,13 +5975,13 @@
         <v>235</v>
       </c>
       <c r="B100" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H100" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5992,7 +5992,7 @@
         <v>176</v>
       </c>
       <c r="H101" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -6003,7 +6003,7 @@
         <v>176</v>
       </c>
       <c r="H102" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -6014,7 +6014,7 @@
         <v>176</v>
       </c>
       <c r="H103" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -6025,7 +6025,7 @@
         <v>176</v>
       </c>
       <c r="H104" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6033,13 +6033,13 @@
         <v>240</v>
       </c>
       <c r="B105" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C105" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H105" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6047,13 +6047,13 @@
         <v>241</v>
       </c>
       <c r="B106" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H106" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6061,13 +6061,13 @@
         <v>228</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C107" s="113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H107" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6078,7 +6078,7 @@
         <v>254</v>
       </c>
       <c r="H108" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6086,13 +6086,13 @@
         <v>242</v>
       </c>
       <c r="B109" s="95" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C109" s="110" t="s">
         <v>253</v>
       </c>
       <c r="H109" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -6103,7 +6103,7 @@
         <v>176</v>
       </c>
       <c r="H110" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -6111,13 +6111,13 @@
         <v>244</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C111" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H111" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -6128,7 +6128,7 @@
         <v>176</v>
       </c>
       <c r="H112" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6136,13 +6136,13 @@
         <v>230</v>
       </c>
       <c r="B113" s="121" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C113" s="70" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H113" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6153,7 +6153,7 @@
         <v>254</v>
       </c>
       <c r="H114" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6161,13 +6161,13 @@
         <v>457</v>
       </c>
       <c r="B115" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C115" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H115" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -6175,13 +6175,13 @@
         <v>260</v>
       </c>
       <c r="B116" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H116" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6189,13 +6189,13 @@
         <v>261</v>
       </c>
       <c r="B117" s="121" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C117" s="95" t="s">
         <v>454</v>
       </c>
       <c r="H117" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6203,24 +6203,24 @@
         <v>263</v>
       </c>
       <c r="B118" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C118" s="95" t="s">
         <v>498</v>
       </c>
       <c r="H118" s="118" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="70" t="s">
-        <v>577</v>
+        <v>893</v>
       </c>
       <c r="B119" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H119" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6228,13 +6228,13 @@
         <v>264</v>
       </c>
       <c r="B120" s="121" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6245,24 +6245,24 @@
         <v>424</v>
       </c>
       <c r="C121" s="95" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B122" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C122" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C122" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H122" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6270,13 +6270,13 @@
         <v>266</v>
       </c>
       <c r="B123" s="95" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C123" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H123" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6284,21 +6284,21 @@
         <v>276</v>
       </c>
       <c r="B124" s="95" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H124" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B125" s="95" t="s">
         <v>267</v>
       </c>
       <c r="H125" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -6306,58 +6306,58 @@
         <v>275</v>
       </c>
       <c r="B126" s="95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H126" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B127" s="95" t="s">
+        <v>693</v>
+      </c>
+      <c r="C127" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="C127" s="95" t="s">
+      <c r="D127" s="95" t="s">
+        <v>684</v>
+      </c>
+      <c r="E127" s="95" t="s">
         <v>695</v>
       </c>
-      <c r="D127" s="95" t="s">
-        <v>685</v>
-      </c>
-      <c r="E127" s="95" t="s">
-        <v>696</v>
-      </c>
       <c r="F127" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H127" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B128" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H128" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="121" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B129" s="121" t="s">
         <v>255</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H129" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6365,13 +6365,13 @@
         <v>272</v>
       </c>
       <c r="B130" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C130" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C130" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H130" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -6382,7 +6382,7 @@
         <v>176</v>
       </c>
       <c r="H131" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
         <v>176</v>
       </c>
       <c r="H132" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6401,10 +6401,10 @@
         <v>279</v>
       </c>
       <c r="B133" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H133" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -6415,7 +6415,7 @@
         <v>176</v>
       </c>
       <c r="H134" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6423,27 +6423,27 @@
         <v>283</v>
       </c>
       <c r="B135" s="121" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C135" s="95" t="s">
         <v>454</v>
       </c>
       <c r="H135" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="121" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B136" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C136" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H136" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -6451,13 +6451,13 @@
         <v>284</v>
       </c>
       <c r="B137" s="70" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C137" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H137" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6465,13 +6465,13 @@
         <v>285</v>
       </c>
       <c r="B138" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C138" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H138" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -6479,13 +6479,13 @@
         <v>286</v>
       </c>
       <c r="B139" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C139" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H139" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6493,13 +6493,13 @@
         <v>287</v>
       </c>
       <c r="B140" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C140" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C140" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H140" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -6510,21 +6510,21 @@
         <v>289</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H141" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B142" s="113" t="s">
         <v>254</v>
       </c>
       <c r="H142" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6535,7 +6535,7 @@
         <v>176</v>
       </c>
       <c r="H143" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6543,28 +6543,28 @@
         <v>292</v>
       </c>
       <c r="B144" s="121" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B145" s="95" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C145" s="110" t="s">
         <v>249</v>
       </c>
       <c r="H145" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6572,21 +6572,21 @@
         <v>293</v>
       </c>
       <c r="B146" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H146" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="121" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B147" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H147" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
         <v>176</v>
       </c>
       <c r="H148" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -6605,13 +6605,13 @@
         <v>472</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C149" s="110" t="s">
         <v>248</v>
       </c>
       <c r="H149" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -6622,21 +6622,21 @@
         <v>176</v>
       </c>
       <c r="H150" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B151" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C151" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H151" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6644,13 +6644,13 @@
         <v>298</v>
       </c>
       <c r="B152" s="121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C152" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H152" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6658,13 +6658,13 @@
         <v>299</v>
       </c>
       <c r="B153" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H153" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6672,13 +6672,13 @@
         <v>302</v>
       </c>
       <c r="B154" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C154" s="121" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H154" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6689,21 +6689,21 @@
         <v>254</v>
       </c>
       <c r="H155" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B156" s="121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C156" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H156" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6711,13 +6711,13 @@
         <v>296</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C157" s="113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H157" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6725,10 +6725,10 @@
         <v>297</v>
       </c>
       <c r="B158" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H158" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6736,13 +6736,13 @@
         <v>301</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C159" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H159" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6750,10 +6750,10 @@
         <v>304</v>
       </c>
       <c r="B160" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H160" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6764,7 +6764,7 @@
         <v>176</v>
       </c>
       <c r="H161" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6775,10 +6775,10 @@
         <v>437</v>
       </c>
       <c r="C162" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H162" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6786,24 +6786,24 @@
         <v>307</v>
       </c>
       <c r="B163" s="113" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H163" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C164" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H164" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -6814,10 +6814,10 @@
         <v>437</v>
       </c>
       <c r="C165" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H165" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -6825,10 +6825,10 @@
         <v>309</v>
       </c>
       <c r="B166" s="121" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H166" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6836,13 +6836,13 @@
         <v>310</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C167" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H167" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6850,10 +6850,10 @@
         <v>311</v>
       </c>
       <c r="B168" s="121" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H168" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6864,7 +6864,7 @@
         <v>256</v>
       </c>
       <c r="H169" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6872,10 +6872,10 @@
         <v>277</v>
       </c>
       <c r="B170" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H170" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6886,10 +6886,10 @@
         <v>248</v>
       </c>
       <c r="C171" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H171" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6897,24 +6897,24 @@
         <v>407</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C172" s="95" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H172" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B173" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H173" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6922,10 +6922,10 @@
         <v>321</v>
       </c>
       <c r="B174" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H174" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6933,10 +6933,10 @@
         <v>322</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H175" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6944,10 +6944,10 @@
         <v>323</v>
       </c>
       <c r="B176" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H176" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6958,7 +6958,7 @@
         <v>176</v>
       </c>
       <c r="H177" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6969,10 +6969,10 @@
         <v>255</v>
       </c>
       <c r="C178" s="95" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H178" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6983,7 +6983,7 @@
         <v>176</v>
       </c>
       <c r="H179" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6991,10 +6991,10 @@
         <v>327</v>
       </c>
       <c r="B180" s="95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H180" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7002,10 +7002,10 @@
         <v>328</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H181" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7013,13 +7013,13 @@
         <v>329</v>
       </c>
       <c r="B182" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C182" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C182" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H182" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -7030,7 +7030,7 @@
         <v>176</v>
       </c>
       <c r="H183" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7038,10 +7038,10 @@
         <v>331</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H184" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -7049,16 +7049,16 @@
         <v>332</v>
       </c>
       <c r="B185" s="70" t="s">
+        <v>703</v>
+      </c>
+      <c r="C185" s="95" t="s">
         <v>704</v>
       </c>
-      <c r="C185" s="95" t="s">
+      <c r="D185" s="110" t="s">
         <v>705</v>
       </c>
-      <c r="D185" s="110" t="s">
-        <v>706</v>
-      </c>
       <c r="H185" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7066,16 +7066,16 @@
         <v>333</v>
       </c>
       <c r="B186" s="95" t="s">
+        <v>706</v>
+      </c>
+      <c r="C186" s="95" t="s">
         <v>707</v>
       </c>
-      <c r="C186" s="95" t="s">
-        <v>708</v>
-      </c>
       <c r="D186" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H186" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7083,11 +7083,11 @@
         <v>334</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -7098,21 +7098,21 @@
         <v>176</v>
       </c>
       <c r="H188" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B189" s="70" t="s">
         <v>437</v>
       </c>
       <c r="C189" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H189" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7120,13 +7120,13 @@
         <v>336</v>
       </c>
       <c r="B190" s="121" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C190" s="70" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H190" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7134,11 +7134,11 @@
         <v>408</v>
       </c>
       <c r="B191" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7146,10 +7146,10 @@
         <v>409</v>
       </c>
       <c r="B192" s="95" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H192" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -7160,10 +7160,10 @@
         <v>255</v>
       </c>
       <c r="C193" s="95" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H193" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7171,18 +7171,18 @@
         <v>570</v>
       </c>
       <c r="B194" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H194" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B195" s="70" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C195" s="91"/>
       <c r="D195" s="91"/>
@@ -7190,7 +7190,7 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -7198,13 +7198,13 @@
         <v>410</v>
       </c>
       <c r="B196" s="95" t="s">
+        <v>682</v>
+      </c>
+      <c r="C196" s="110" t="s">
         <v>683</v>
       </c>
-      <c r="C196" s="110" t="s">
-        <v>684</v>
-      </c>
       <c r="H196" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -7212,13 +7212,13 @@
         <v>411</v>
       </c>
       <c r="B197" s="98" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C197" s="110" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H197" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7226,13 +7226,13 @@
         <v>412</v>
       </c>
       <c r="B198" s="95" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C198" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H198" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -7240,16 +7240,16 @@
         <v>413</v>
       </c>
       <c r="B199" s="70" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C199" s="95" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D199" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H199" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7257,7 +7257,7 @@
         <v>414</v>
       </c>
       <c r="B200" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C200" s="70"/>
       <c r="D200" s="95"/>
@@ -7265,33 +7265,33 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="121" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B201" s="95" t="s">
+        <v>693</v>
+      </c>
+      <c r="C201" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="C201" s="95" t="s">
+      <c r="D201" s="95" t="s">
+        <v>684</v>
+      </c>
+      <c r="E201" s="95" t="s">
         <v>695</v>
-      </c>
-      <c r="D201" s="95" t="s">
-        <v>685</v>
-      </c>
-      <c r="E201" s="95" t="s">
-        <v>696</v>
       </c>
       <c r="F201" s="90" t="s">
         <v>416</v>
       </c>
       <c r="G201" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H201" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7302,13 +7302,13 @@
         <v>418</v>
       </c>
       <c r="C202" s="95" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D202" s="70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H202" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7316,13 +7316,13 @@
         <v>419</v>
       </c>
       <c r="B203" s="113" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C203" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H203" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7330,71 +7330,71 @@
         <v>420</v>
       </c>
       <c r="B204" s="95" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C204" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="121" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B205" s="113" t="s">
+        <v>713</v>
+      </c>
+      <c r="C205" s="113" t="s">
         <v>714</v>
       </c>
-      <c r="C205" s="113" t="s">
-        <v>715</v>
-      </c>
       <c r="H205" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="121" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B206" s="95" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C206" s="95" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D206" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E206" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F206" s="110" t="s">
         <v>253</v>
       </c>
       <c r="H206" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="121" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B207" s="95" t="s">
         <v>253</v>
       </c>
       <c r="C207" s="95" t="s">
+        <v>678</v>
+      </c>
+      <c r="D207" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="D207" s="95" t="s">
-        <v>680</v>
-      </c>
       <c r="E207" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H207" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -7405,10 +7405,10 @@
         <v>247</v>
       </c>
       <c r="C208" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H208" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -7416,38 +7416,38 @@
         <v>528</v>
       </c>
       <c r="B209" s="95" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C209" s="95" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E209" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H209" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="95" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B210" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H210" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H211" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7455,16 +7455,16 @@
         <v>421</v>
       </c>
       <c r="B212" s="121" t="s">
+        <v>718</v>
+      </c>
+      <c r="C212" s="113" t="s">
         <v>719</v>
       </c>
-      <c r="C212" s="113" t="s">
+      <c r="D212" s="113" t="s">
         <v>720</v>
       </c>
-      <c r="D212" s="113" t="s">
-        <v>721</v>
-      </c>
       <c r="H212" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -7475,11 +7475,11 @@
         <v>424</v>
       </c>
       <c r="C213" s="95" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7490,10 +7490,10 @@
         <v>455</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H214" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -7501,16 +7501,16 @@
         <v>426</v>
       </c>
       <c r="B215" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C215" s="95" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D215" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H215" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -7518,14 +7518,14 @@
         <v>527</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C216" s="110" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -7536,10 +7536,10 @@
         <v>255</v>
       </c>
       <c r="C217" s="78" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H217" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7554,22 +7554,22 @@
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="121" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B219" s="95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C219" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7577,17 +7577,17 @@
         <v>524</v>
       </c>
       <c r="B220" s="95" t="s">
+        <v>722</v>
+      </c>
+      <c r="C220" s="95" t="s">
+        <v>661</v>
+      </c>
+      <c r="D220" s="110" t="s">
         <v>723</v>
-      </c>
-      <c r="C220" s="95" t="s">
-        <v>662</v>
-      </c>
-      <c r="D220" s="110" t="s">
-        <v>724</v>
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7595,30 +7595,30 @@
         <v>523</v>
       </c>
       <c r="B221" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C221" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H221" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="121" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B222" s="95" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C222" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D222" s="110" t="s">
         <v>249</v>
       </c>
       <c r="H222" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7626,10 +7626,10 @@
         <v>429</v>
       </c>
       <c r="B223" s="95" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H223" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -7637,13 +7637,13 @@
         <v>430</v>
       </c>
       <c r="B224" s="95" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C224" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H224" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7651,13 +7651,13 @@
         <v>431</v>
       </c>
       <c r="B225" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C225" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H225" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -7665,13 +7665,13 @@
         <v>432</v>
       </c>
       <c r="B226" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C226" s="110" t="s">
         <v>252</v>
       </c>
       <c r="H226" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7679,24 +7679,24 @@
         <v>433</v>
       </c>
       <c r="B227" s="95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H227" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="121" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B228" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C228" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H228" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7704,13 +7704,13 @@
         <v>434</v>
       </c>
       <c r="B229" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C229" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H229" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -7718,16 +7718,16 @@
         <v>435</v>
       </c>
       <c r="B230" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C230" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D230" s="110" t="s">
         <v>252</v>
       </c>
       <c r="H230" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -7735,13 +7735,13 @@
         <v>436</v>
       </c>
       <c r="B231" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C231" s="95" t="s">
         <v>437</v>
       </c>
       <c r="H231" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7752,18 +7752,18 @@
         <v>253</v>
       </c>
       <c r="C232" s="70" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D232" s="70" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E232" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -7771,13 +7771,13 @@
         <v>522</v>
       </c>
       <c r="B233" s="95" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C233" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H233" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -7788,10 +7788,10 @@
         <v>415</v>
       </c>
       <c r="C234" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H234" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7799,13 +7799,13 @@
         <v>519</v>
       </c>
       <c r="B235" s="70" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C235" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H235" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -7813,27 +7813,27 @@
         <v>520</v>
       </c>
       <c r="B236" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C236" s="110" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H236" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="95" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B237" s="98" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C237" s="110" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H237" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7841,13 +7841,13 @@
         <v>458</v>
       </c>
       <c r="B238" s="98" t="s">
+        <v>704</v>
+      </c>
+      <c r="C238" s="110" t="s">
         <v>705</v>
       </c>
-      <c r="C238" s="110" t="s">
-        <v>706</v>
-      </c>
       <c r="H238" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7855,16 +7855,16 @@
         <v>460</v>
       </c>
       <c r="B239" s="95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C239" s="95" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D239" s="110" t="s">
         <v>418</v>
       </c>
       <c r="H239" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -7872,13 +7872,13 @@
         <v>459</v>
       </c>
       <c r="B240" s="122" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C240" s="110" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H240" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7886,13 +7886,13 @@
         <v>496</v>
       </c>
       <c r="B241" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C241" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H241" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7900,13 +7900,13 @@
         <v>495</v>
       </c>
       <c r="B242" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C242" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H242" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7914,16 +7914,16 @@
         <v>494</v>
       </c>
       <c r="B243" s="70" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C243" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D243" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H243" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7931,45 +7931,45 @@
         <v>493</v>
       </c>
       <c r="B244" s="70" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C244" s="70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D244" s="110" t="s">
         <v>418</v>
       </c>
       <c r="H244" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B245" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C245" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D245" s="110"/>
       <c r="H245" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="70" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B246" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C246" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H246" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -7977,16 +7977,16 @@
         <v>491</v>
       </c>
       <c r="B247" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D247" s="110" t="s">
         <v>415</v>
       </c>
       <c r="H247" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7994,16 +7994,16 @@
         <v>490</v>
       </c>
       <c r="B248" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="C248" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="C248" s="99" t="s">
+      <c r="D248" s="110" t="s">
         <v>705</v>
       </c>
-      <c r="D248" s="110" t="s">
-        <v>706</v>
-      </c>
       <c r="H248" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8011,22 +8011,22 @@
         <v>489</v>
       </c>
       <c r="B249" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="C249" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="C249" s="70" t="s">
-        <v>695</v>
-      </c>
       <c r="D249" s="70" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E249" s="70" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F249" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H249" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8034,19 +8034,19 @@
         <v>464</v>
       </c>
       <c r="B250" s="70" t="s">
+        <v>710</v>
+      </c>
+      <c r="C250" s="70" t="s">
         <v>711</v>
       </c>
-      <c r="C250" s="70" t="s">
-        <v>712</v>
-      </c>
       <c r="D250" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E250" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H250" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -8060,19 +8060,19 @@
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B252" s="70"/>
       <c r="C252" s="70"/>
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8080,31 +8080,31 @@
         <v>465</v>
       </c>
       <c r="B253" s="70" t="s">
+        <v>732</v>
+      </c>
+      <c r="C253" s="70" t="s">
         <v>733</v>
-      </c>
-      <c r="C253" s="70" t="s">
-        <v>734</v>
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B254" s="70" t="s">
         <v>461</v>
       </c>
       <c r="C254" s="110" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -8112,17 +8112,17 @@
         <v>466</v>
       </c>
       <c r="B255" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="C255" s="70" t="s">
         <v>735</v>
       </c>
-      <c r="C255" s="70" t="s">
-        <v>736</v>
-      </c>
       <c r="D255" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8130,15 +8130,15 @@
         <v>467</v>
       </c>
       <c r="B256" s="70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C256" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8152,7 +8152,7 @@
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -8160,17 +8160,17 @@
         <v>469</v>
       </c>
       <c r="B258" s="70" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C258" s="70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D258" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8178,15 +8178,15 @@
         <v>470</v>
       </c>
       <c r="B259" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C259" s="70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8194,13 +8194,13 @@
         <v>471</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -8208,31 +8208,31 @@
         <v>479</v>
       </c>
       <c r="B261" s="70" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C261" s="124" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="70" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B262" s="70" t="s">
         <v>480</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -8243,16 +8243,16 @@
         <v>455</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D263" s="70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E263" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H263" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8260,15 +8260,15 @@
         <v>482</v>
       </c>
       <c r="B264" s="95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C264" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8276,19 +8276,19 @@
         <v>484</v>
       </c>
       <c r="B265" s="95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C265" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D265" s="70" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E265" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H265" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -8302,7 +8302,7 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8310,17 +8310,17 @@
         <v>497</v>
       </c>
       <c r="B267" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D267" s="70" t="s">
         <v>453</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8328,15 +8328,15 @@
         <v>212</v>
       </c>
       <c r="B268" s="121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C268" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -8347,50 +8347,50 @@
         <v>248</v>
       </c>
       <c r="C269" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B270" s="70" t="s">
         <v>251</v>
       </c>
       <c r="C270" s="70" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D270" s="121" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H270" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="70" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B271" s="70" t="s">
         <v>427</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D271" s="70" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8398,33 +8398,33 @@
         <v>514</v>
       </c>
       <c r="B272" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C272" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="70" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B273" s="121" t="s">
+        <v>718</v>
+      </c>
+      <c r="C273" s="113" t="s">
         <v>719</v>
       </c>
-      <c r="C273" s="113" t="s">
-        <v>720</v>
-      </c>
       <c r="D273" s="70" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8432,19 +8432,19 @@
         <v>513</v>
       </c>
       <c r="B274" s="121" t="s">
+        <v>718</v>
+      </c>
+      <c r="C274" s="113" t="s">
         <v>719</v>
       </c>
-      <c r="C274" s="113" t="s">
+      <c r="D274" s="70" t="s">
         <v>720</v>
       </c>
-      <c r="D274" s="70" t="s">
-        <v>721</v>
-      </c>
       <c r="E274" s="70" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H274" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8452,15 +8452,15 @@
         <v>512</v>
       </c>
       <c r="B275" s="121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C275" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8468,15 +8468,15 @@
         <v>503</v>
       </c>
       <c r="B276" s="70" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C276" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -8490,7 +8490,7 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8504,7 +8504,7 @@
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8512,17 +8512,17 @@
         <v>544</v>
       </c>
       <c r="B279" s="70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D279" s="110" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8530,31 +8530,31 @@
         <v>502</v>
       </c>
       <c r="B280" s="70" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C280" s="110" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="70" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B281" s="70" t="s">
         <v>415</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -8562,17 +8562,17 @@
         <v>511</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D282" s="70" t="s">
         <v>415</v>
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -8580,41 +8580,41 @@
         <v>515</v>
       </c>
       <c r="B283" s="70" t="s">
+        <v>745</v>
+      </c>
+      <c r="C283" s="110" t="s">
         <v>746</v>
-      </c>
-      <c r="C283" s="110" t="s">
-        <v>747</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="70" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B284" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D284" s="70" t="s">
         <v>415</v>
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="70" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B285" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C285" s="70" t="s">
         <v>415</v>
@@ -8622,7 +8622,7 @@
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8633,12 +8633,12 @@
         <v>427</v>
       </c>
       <c r="C286" s="70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8646,7 +8646,7 @@
         <v>509</v>
       </c>
       <c r="B287" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C287" s="110"/>
       <c r="D287" s="70"/>
@@ -8654,7 +8654,7 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8662,15 +8662,15 @@
         <v>508</v>
       </c>
       <c r="B288" s="70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C288" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8681,12 +8681,12 @@
         <v>416</v>
       </c>
       <c r="C289" s="70" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8694,35 +8694,35 @@
         <v>506</v>
       </c>
       <c r="B290" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="C290" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="C290" s="70" t="s">
+      <c r="D290" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="D290" s="70" t="s">
-        <v>696</v>
-      </c>
       <c r="E290" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H290" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="70" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C291" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8730,15 +8730,15 @@
         <v>505</v>
       </c>
       <c r="B292" s="70" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C292" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8746,13 +8746,13 @@
         <v>177</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C293" s="121" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H293" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8760,13 +8760,13 @@
         <v>462</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C294" s="121" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H294" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8774,10 +8774,10 @@
         <v>262</v>
       </c>
       <c r="B295" s="121" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H295" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8785,58 +8785,58 @@
         <v>312</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H296" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="70" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H297" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="70" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H298" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="121" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B299" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="C299" s="95" t="s">
+        <v>678</v>
+      </c>
+      <c r="D299" s="95" t="s">
         <v>751</v>
       </c>
-      <c r="C299" s="95" t="s">
-        <v>679</v>
-      </c>
-      <c r="D299" s="95" t="s">
-        <v>752</v>
-      </c>
       <c r="H299" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8844,33 +8844,33 @@
         <v>422</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H300" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="70" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B301" s="70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C301" s="70" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D301" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="E301" s="95" t="s">
         <v>751</v>
       </c>
-      <c r="E301" s="95" t="s">
-        <v>752</v>
-      </c>
       <c r="H301" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8878,16 +8878,16 @@
         <v>492</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C302" s="70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D302" s="122" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H302" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8898,12 +8898,12 @@
         <v>252</v>
       </c>
       <c r="C303" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8914,23 +8914,23 @@
         <v>252</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="70" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B305" s="95" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H305" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8941,10 +8941,10 @@
         <v>247</v>
       </c>
       <c r="C306" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H306" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8952,16 +8952,16 @@
         <v>531</v>
       </c>
       <c r="B307" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C307" s="95" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D307" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H307" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8969,13 +8969,13 @@
         <v>532</v>
       </c>
       <c r="B308" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C308" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C308" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H308" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8983,10 +8983,10 @@
         <v>533</v>
       </c>
       <c r="B309" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H309" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8994,13 +8994,13 @@
         <v>534</v>
       </c>
       <c r="B310" s="95" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C310" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H310" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -9008,14 +9008,14 @@
         <v>535</v>
       </c>
       <c r="B311" s="117" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C311" s="117" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -9023,13 +9023,13 @@
         <v>536</v>
       </c>
       <c r="B312" s="117" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C312" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H312" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -9037,10 +9037,10 @@
         <v>537</v>
       </c>
       <c r="B313" s="97" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H313" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9048,27 +9048,27 @@
         <v>538</v>
       </c>
       <c r="B314" s="95" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H314" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="70" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C315" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H315" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -9076,55 +9076,55 @@
         <v>539</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C316" s="110" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H316" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B317" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C317" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H317" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="70" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C318" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H318" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="70" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C319" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H319" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9135,10 +9135,10 @@
         <v>545</v>
       </c>
       <c r="C320" s="70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H320" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -9146,24 +9146,24 @@
         <v>568</v>
       </c>
       <c r="B321" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C321" s="95" t="s">
         <v>437</v>
       </c>
       <c r="H321" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="70" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B322" s="95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H322" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9171,13 +9171,13 @@
         <v>546</v>
       </c>
       <c r="B323" s="121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C323" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H323" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9188,7 +9188,7 @@
         <v>176</v>
       </c>
       <c r="H324" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9196,16 +9196,16 @@
         <v>548</v>
       </c>
       <c r="B325" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D325" s="70" t="s">
         <v>453</v>
       </c>
       <c r="H325" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -9213,13 +9213,13 @@
         <v>549</v>
       </c>
       <c r="B326" s="95" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C326" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H326" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9230,13 +9230,13 @@
         <v>418</v>
       </c>
       <c r="C327" s="95" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D327" s="95" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H327" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -9244,13 +9244,13 @@
         <v>551</v>
       </c>
       <c r="B328" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C328" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H328" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9258,10 +9258,10 @@
         <v>552</v>
       </c>
       <c r="B329" s="113" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H329" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -9269,24 +9269,24 @@
         <v>553</v>
       </c>
       <c r="B330" s="123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H330" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="70" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B331" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C331" s="95" t="s">
         <v>437</v>
       </c>
       <c r="H331" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -9294,16 +9294,16 @@
         <v>554</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C332" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D332" s="110" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H332" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -9311,25 +9311,25 @@
         <v>555</v>
       </c>
       <c r="B333" s="95" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C333" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H333" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="114" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B334" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -9340,7 +9340,7 @@
         <v>176</v>
       </c>
       <c r="H335" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9351,7 +9351,7 @@
         <v>254</v>
       </c>
       <c r="H336" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -9359,13 +9359,13 @@
         <v>558</v>
       </c>
       <c r="B337" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C337" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H337" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9373,10 +9373,10 @@
         <v>559</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H338" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -9384,13 +9384,13 @@
         <v>560</v>
       </c>
       <c r="B339" s="95" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C339" s="110" t="s">
         <v>545</v>
       </c>
       <c r="H339" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9398,13 +9398,13 @@
         <v>561</v>
       </c>
       <c r="B340" s="95" t="s">
+        <v>761</v>
+      </c>
+      <c r="C340" s="95" t="s">
         <v>762</v>
       </c>
-      <c r="C340" s="95" t="s">
-        <v>763</v>
-      </c>
       <c r="H340" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -9415,38 +9415,38 @@
         <v>176</v>
       </c>
       <c r="H341" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="70" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C342" s="121" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H342" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="70" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B343" s="97" t="s">
+        <v>719</v>
+      </c>
+      <c r="C343" s="97" t="s">
         <v>720</v>
       </c>
-      <c r="C343" s="97" t="s">
-        <v>721</v>
-      </c>
       <c r="D343" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H343" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -9457,13 +9457,13 @@
         <v>251</v>
       </c>
       <c r="C344" s="121" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H344" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -9471,33 +9471,33 @@
         <v>563</v>
       </c>
       <c r="B345" s="123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C345" s="97" t="s">
+        <v>719</v>
+      </c>
+      <c r="D345" s="97" t="s">
         <v>720</v>
       </c>
-      <c r="D345" s="97" t="s">
-        <v>721</v>
-      </c>
       <c r="H345" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="123" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B346" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C346" s="95" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D346" s="123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H346" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -9505,13 +9505,13 @@
         <v>564</v>
       </c>
       <c r="B347" s="121" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C347" s="121" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H347" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9519,13 +9519,13 @@
         <v>565</v>
       </c>
       <c r="B348" s="95" t="s">
+        <v>765</v>
+      </c>
+      <c r="C348" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="C348" s="95" t="s">
-        <v>767</v>
-      </c>
       <c r="H348" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -9536,32 +9536,32 @@
         <v>567</v>
       </c>
       <c r="H349" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="70" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B350" s="113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H350" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="70" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B351" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C351" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H351" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -9569,13 +9569,13 @@
         <v>569</v>
       </c>
       <c r="B352" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H352" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -9586,24 +9586,24 @@
         <v>437</v>
       </c>
       <c r="C353" s="88" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H353" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="70" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B354" s="113" t="s">
+        <v>769</v>
+      </c>
+      <c r="C354" s="113" t="s">
         <v>770</v>
       </c>
-      <c r="C354" s="113" t="s">
-        <v>771</v>
-      </c>
       <c r="H354" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9614,7 +9614,7 @@
         <v>254</v>
       </c>
       <c r="H355" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -9625,7 +9625,7 @@
         <v>567</v>
       </c>
       <c r="H356" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9636,13 +9636,13 @@
         <v>427</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D357" s="70" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H357" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9653,269 +9653,269 @@
         <v>176</v>
       </c>
       <c r="H358" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="70" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B359" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H359" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="70" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B360" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C360" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H360" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B361" s="89" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C361" s="110" t="s">
         <v>480</v>
       </c>
       <c r="H361" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B362" s="95" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C362" s="110" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H362" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="70" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C363" s="123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D363" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H363" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B364" s="95" t="s">
+        <v>650</v>
+      </c>
+      <c r="C364" s="95" t="s">
         <v>651</v>
       </c>
-      <c r="C364" s="95" t="s">
-        <v>652</v>
-      </c>
       <c r="H364" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="70" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B365" s="115" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C365" s="95" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D365" s="112"/>
       <c r="H365" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="70" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B366" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C366" s="70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D366" s="124" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C367" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H367" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B368" s="89" t="s">
         <v>437</v>
       </c>
       <c r="C368" s="89" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="123" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B369" s="97" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C369" s="97" t="s">
         <v>437</v>
       </c>
       <c r="H369" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="70" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B370" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C370" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H370" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="92" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B371" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C371" s="110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H371" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="121" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B372" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C372" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D372" s="124" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H372" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="70" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B373" s="89" t="s">
         <v>437</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B374" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D374" s="124" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H374" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B375" s="95" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H375" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="97" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B376" s="97" t="s">
+        <v>775</v>
+      </c>
+      <c r="C376" s="97" t="s">
         <v>776</v>
       </c>
-      <c r="C376" s="97" t="s">
-        <v>777</v>
-      </c>
       <c r="H376" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9923,15 +9923,15 @@
         <v>5</v>
       </c>
       <c r="B377" s="121" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H377" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="95" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B378" s="113" t="s">
         <v>176</v>
@@ -9941,7 +9941,7 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -9952,7 +9952,7 @@
         <v>252</v>
       </c>
       <c r="H379" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9963,7 +9963,7 @@
         <v>254</v>
       </c>
       <c r="H380" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9971,13 +9971,13 @@
         <v>290</v>
       </c>
       <c r="B381" s="97" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C381" s="97" t="s">
         <v>437</v>
       </c>
       <c r="H381" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9985,32 +9985,32 @@
         <v>337</v>
       </c>
       <c r="B382" s="113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C382" s="70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D382" s="121" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H382" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="70" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C383" s="124" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
       <c r="H383" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -10018,17 +10018,17 @@
         <v>487</v>
       </c>
       <c r="B384" s="95" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D384" s="110" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -10036,30 +10036,30 @@
         <v>486</v>
       </c>
       <c r="B385" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D385" s="124" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H385" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C386" s="110" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H386" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10067,285 +10067,285 @@
         <v>572</v>
       </c>
       <c r="B387" s="95" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C387" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H387" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B388" s="95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C388" s="124" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B389" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C389" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C389" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H389" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="116" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B390" s="115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C390" s="70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
       <c r="H390" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="70" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B391" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H391" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="70" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B392" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H392" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="70" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B393" s="70" t="s">
         <v>480</v>
       </c>
       <c r="C393" s="70" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H393" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="70" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B394" s="89" t="s">
         <v>437</v>
       </c>
       <c r="C394" s="89" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H394" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="70" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B395" s="121" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C395" s="121" t="s">
         <v>453</v>
       </c>
       <c r="H395" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="70" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B396" s="121" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H396" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="102" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B397" s="70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C397" s="95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D397" s="109" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H397" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="70" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B398" s="70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C398" s="109" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H398" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B399" s="101" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H399" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="70" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B400" s="95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C400" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H400" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="70" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B401" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H401" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="70" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B402" s="95" t="s">
         <v>249</v>
       </c>
       <c r="H402" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B403" s="121" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H403" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="70" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B404" s="95" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C404" s="95" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D404" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H404" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="70" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B405" s="113" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C405" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H405" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="103" t="s">
+        <v>609</v>
+      </c>
+      <c r="B406" s="103" t="s">
         <v>610</v>
       </c>
-      <c r="B406" s="103" t="s">
-        <v>611</v>
-      </c>
       <c r="C406" s="103" t="s">
+        <v>682</v>
+      </c>
+      <c r="D406" s="110" t="s">
         <v>683</v>
-      </c>
-      <c r="D406" s="110" t="s">
-        <v>684</v>
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="104" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B407" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H407" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -10353,14 +10353,14 @@
         <v>199</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C408" s="110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -10368,343 +10368,343 @@
         <v>200</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C409" s="110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H409" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C410" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H410" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="70" t="s">
+        <v>612</v>
+      </c>
+      <c r="B411" s="74" t="s">
+        <v>781</v>
+      </c>
+      <c r="C411" s="74" t="s">
         <v>613</v>
       </c>
-      <c r="B411" s="74" t="s">
-        <v>782</v>
-      </c>
-      <c r="C411" s="74" t="s">
-        <v>614</v>
-      </c>
       <c r="H411" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="70" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B412" s="74" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H412" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="101" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B413" s="101" t="s">
         <v>252</v>
       </c>
       <c r="H413" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="101" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B414" s="101" t="s">
         <v>249</v>
       </c>
       <c r="H414" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C415" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H415" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="70" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B416" s="121" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H416" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="105" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H417" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="70" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B418" s="74" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H418" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="70" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B419" s="74" t="s">
+        <v>688</v>
+      </c>
+      <c r="C419" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="C419" s="74" t="s">
-        <v>690</v>
-      </c>
       <c r="H419" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="70" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C420" s="74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H420" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B421" s="74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C421" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H421" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="70" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C422" s="74" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H422" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="121" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B423" s="121" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C423" s="74" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H423" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="70" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B424" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H424" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="70" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C425" s="121" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H425" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="70" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B426" s="106" t="s">
         <v>416</v>
       </c>
       <c r="C426" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H426" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B427" s="107" t="s">
         <v>255</v>
       </c>
       <c r="C427" s="107" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D427" s="121" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H427" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B428" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H428" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B429" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C429" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D429" s="110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H429" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="70" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B430" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H430" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B431" s="74" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C431" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H431" s="118"/>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="70" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B432" s="74" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C432" s="110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H432" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B433" s="121" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C433" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H433" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="70" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B434" s="108" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C434" s="110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H434" s="118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -12600,27 +12600,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -12654,7 +12654,7 @@
         <v>475</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12668,7 +12668,7 @@
         <v>478</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAEEC5-58AC-4C81-94BE-B86E43C93722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E029A-435F-4772-90DA-05BE5987230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,9 +587,6 @@
     <t>Где получить альфа карту</t>
   </si>
   <si>
-    <t>Заказать зп карту</t>
-  </si>
-  <si>
     <t>Не работает приложение не могу закрыть счет счет не закрывается нужен оператор</t>
   </si>
   <si>
@@ -698,9 +695,6 @@
     <t>Как мне заказать карту через ссылку по пригласи друга</t>
   </si>
   <si>
-    <t>Сервис заправки / Заправки / Не прошла оплата на заправке</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заказал стикер </t>
   </si>
   <si>
@@ -726,9 +720,6 @@
   </si>
   <si>
     <t>Украли / Потерял телефон</t>
-  </si>
-  <si>
-    <t>Подвердить платеж, по движению средств, по истории</t>
   </si>
   <si>
     <t>По списанию</t>
@@ -1528,9 +1519,6 @@
     <t>Цифры (Numbers)</t>
   </si>
   <si>
-    <t>Меня обманули мошенники/ у меня мошеннические действия происходят</t>
-  </si>
-  <si>
     <t>Рефинансирование под залог недвижимости (Alfa_Local_Secured_Refinancing)</t>
   </si>
   <si>
@@ -1822,9 +1810,6 @@
     <t>возврат переплаты по субсидии ижс ладно слать по договору солодиловой кристиной сергеевной</t>
   </si>
   <si>
-    <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи/сумма получателю пришла меньше чем перевел</t>
-  </si>
-  <si>
     <t>как погасить досрочно</t>
   </si>
   <si>
@@ -1885,9 +1870,6 @@
     <t>сим карта</t>
   </si>
   <si>
-    <t>Связаться с отделением банка/мне нужен номер филиала в городе сосновый бор</t>
-  </si>
-  <si>
     <t>поменяла сим карту не дает доступ в онлайн банк</t>
   </si>
   <si>
@@ -1931,9 +1913,6 @@
   </si>
   <si>
     <t>договор по страховке</t>
-  </si>
-  <si>
-    <t>Зарегистрировать карту/авторизовать</t>
   </si>
   <si>
     <t>Нет 
@@ -2098,9 +2077,6 @@
     <t>Невозможно определить</t>
   </si>
   <si>
-    <t>Экстренный звонок/вопрос жизни и смерти</t>
-  </si>
-  <si>
     <t>Экстренный звонок с оператором</t>
   </si>
   <si>
@@ -2668,9 +2644,6 @@
     <t>Я хочу связаться с оператором</t>
   </si>
   <si>
-    <t>списывают деньги с другого счета/пытаетесь долги списали с другого счета</t>
-  </si>
-  <si>
     <t>Не проходит оплата по карте | не проходит операция по карте | карта не проходит</t>
   </si>
   <si>
@@ -2678,9 +2651,6 @@
   </si>
   <si>
     <t>Добавить карту в приложение| привязать карту в приложение</t>
-  </si>
-  <si>
-    <t>Получить зп карту|где зп карта</t>
   </si>
   <si>
     <t>Хочу связь с оператором уточнить информацию по поводу того что пополнила кредитную карту деньги получается |
@@ -2732,9 +2702,6 @@
     <t>приложение пишет что я сменил номер семь|не могу сделать перевод пишет что из-за смена номера</t>
   </si>
   <si>
-    <t>заблокирован перевод|Перевела деньги заблокировали/|разблокировать перевод</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нет доступа к карте/счету|Восстановить доступ к карте/счету  </t>
   </si>
   <si>
@@ -2757,9 +2724,6 @@
   </si>
   <si>
     <t>Отказаться|вопрос по закрытию</t>
-  </si>
-  <si>
-    <t>Я хочу с кредитной карты/дебетовой отказаться от страховки| отказаться от страховки по карте</t>
   </si>
   <si>
     <t>Войти в приложение |получить доступ к приложению| зарегистрироваться в приложении</t>
@@ -2857,6 +2821,42 @@
   </si>
   <si>
     <t>Снять деньги в офисе| снять деньги в кассе/ у операциониста</t>
+  </si>
+  <si>
+    <t>Связаться с отделением банка|мне нужен номер филиала в городе сосновый бор</t>
+  </si>
+  <si>
+    <t>заблокирован перевод|Перевела деньги заблокировали|разблокировать перевод</t>
+  </si>
+  <si>
+    <t>Подвердить платеж| по движению средств| по истории</t>
+  </si>
+  <si>
+    <t>Заказать зарплатную карту</t>
+  </si>
+  <si>
+    <t>Получить зарплатную карту|где зарплатная карта</t>
+  </si>
+  <si>
+    <t>Зарегистрировать /авторизовать карту</t>
+  </si>
+  <si>
+    <t>Сервис заправки | Заправки | Не прошла оплата на заправке</t>
+  </si>
+  <si>
+    <t>списывают деньги с другого счета|пытаетесь долги списали с другого счета</t>
+  </si>
+  <si>
+    <t>Я хочу с кредитной /дебетовой карты отказаться от страховки| отказаться от страховки по карте</t>
+  </si>
+  <si>
+    <t>Меня обманули мошенники| у меня мошеннические действия происходят</t>
+  </si>
+  <si>
+    <t>Экстренный звонок|вопрос жизни и смерти</t>
+  </si>
+  <si>
+    <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи|сумма получателю пришла меньше чем перевел</t>
   </si>
 </sst>
 </file>
@@ -4682,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4701,77 +4701,77 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B1" s="120" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="H1" s="119" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H2" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D4" s="95"/>
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4779,47 +4779,47 @@
         <v>1</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H5" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4827,13 +4827,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H9" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4841,24 +4841,24 @@
         <v>3</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H11" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4866,269 +4866,269 @@
         <v>4</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H12" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="137" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="121" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="121" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H15" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H17" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H18" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C24" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="121" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B26" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="H27" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H28" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="95" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B29" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H29" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
-        <v>597</v>
+      <c r="A30" s="137" t="s">
+        <v>888</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H30" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="95" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B31" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H31" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B32" s="121" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H32" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C33" s="110" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5136,35 +5136,35 @@
         <v>6</v>
       </c>
       <c r="B34" s="121" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H34" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="88" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C35" s="121" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="H35" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H36" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5172,13 +5172,13 @@
         <v>179</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C37" s="121" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H37" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -5186,111 +5186,111 @@
         <v>180</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="H38" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="95" t="s">
-        <v>181</v>
+      <c r="A39" s="137" t="s">
+        <v>886</v>
       </c>
       <c r="B39" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H39" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="121" t="s">
-        <v>836</v>
+      <c r="A40" s="137" t="s">
+        <v>887</v>
       </c>
       <c r="B40" s="121" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C40" s="121" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H40" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="121" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B41" s="121" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H42" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="121" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="H43" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H44" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="H45" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="137" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B46" s="121" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="H46" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -5298,13 +5298,13 @@
         <v>103</v>
       </c>
       <c r="B47" s="95" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C47" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H47" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -5312,24 +5312,24 @@
         <v>105</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H48" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="121" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H49" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5337,16 +5337,16 @@
         <v>178</v>
       </c>
       <c r="B50" s="95" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="C50" s="95" t="s">
-        <v>672</v>
-      </c>
       <c r="D50" s="110" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H50" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -5357,32 +5357,32 @@
         <v>176</v>
       </c>
       <c r="H51" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="121" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C52" s="95" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H52" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -5393,43 +5393,43 @@
         <v>176</v>
       </c>
       <c r="H54" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B55" s="121" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="H55" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B56" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H56" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H57" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5437,13 +5437,13 @@
         <v>114</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C58" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H58" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -5454,34 +5454,34 @@
         <v>176</v>
       </c>
       <c r="H59" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H60" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="121" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C61" s="124" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5489,300 +5489,300 @@
         <v>116</v>
       </c>
       <c r="B62" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B63" s="95" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H63" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="121" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="H65" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="121" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C66" s="95" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H66" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="121" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="H67" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" s="121" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="H68" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H69" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H70" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H71" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="95" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="95" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H73" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="95" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H74" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="121" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C75" s="121" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H75" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="121" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H76" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="H77" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H78" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="121" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B79" s="95" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C79" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D79" s="95" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E79" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="H79" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="95" t="s">
-        <v>218</v>
+      <c r="A80" s="137" t="s">
+        <v>889</v>
       </c>
       <c r="B80" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H80" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" s="70" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C81" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="H81" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="121" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H82" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="121" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C84" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5790,73 +5790,73 @@
         <v>121</v>
       </c>
       <c r="B85" s="70" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="95" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B88" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H88" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B89" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="95" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B90" s="113" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C90" s="79"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5867,7 +5867,7 @@
         <v>176</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5875,13 +5875,13 @@
         <v>159</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C92" s="110" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="H92" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5889,13 +5889,13 @@
         <v>157</v>
       </c>
       <c r="B93" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H93" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5903,1286 +5903,1286 @@
         <v>158</v>
       </c>
       <c r="B94" s="121" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H94" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B95" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C95" s="110" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H95" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="95" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B96" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C96" s="95" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H96" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="95" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B97" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H97" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B98" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H98" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B99" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H99" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="95" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B100" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H100" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B101" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H101" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="95" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B102" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H102" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B103" s="95" t="s">
         <v>176</v>
       </c>
       <c r="H103" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B104" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H104" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B105" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C105" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H105" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="95" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B106" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H106" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="95" t="s">
-        <v>228</v>
+      <c r="A107" s="137" t="s">
+        <v>885</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C107" s="113" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H107" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="95" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B108" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H108" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B109" s="95" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C109" s="110" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H109" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="95" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B110" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H110" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C111" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H111" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="95" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B112" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H112" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B113" s="121" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C113" s="70" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H113" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="95" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B114" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H114" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="70" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B115" s="70" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C115" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H115" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="70" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B116" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H116" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B117" s="121" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C117" s="95" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H117" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="70" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B118" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C118" s="95" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H118" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="70" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B119" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H119" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="70" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B120" s="121" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="70" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B121" s="121" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C121" s="95" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B122" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C122" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H122" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="70" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B123" s="95" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C123" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H123" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B124" s="95" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="H124" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B125" s="95" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H125" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B126" s="95" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H126" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B127" s="95" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C127" s="95" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D127" s="95" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E127" s="95" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F127" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H127" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B128" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H128" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="121" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B129" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H129" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="70" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B130" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C130" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H130" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B131" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H131" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B132" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H132" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B133" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H133" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="70" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B134" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H134" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B135" s="121" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C135" s="95" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H135" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="121" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B136" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C136" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H136" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="70" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B137" s="70" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C137" s="110" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="H137" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="70" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B138" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C138" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H138" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B139" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C139" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H139" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B140" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C140" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H140" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="70" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B141" s="121" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H141" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
-        <v>832</v>
+        <v>890</v>
       </c>
       <c r="B142" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H142" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="70" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B143" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H143" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="70" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B144" s="121" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B145" s="95" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C145" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H145" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B146" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H146" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="121" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B147" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H147" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="70" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B148" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H148" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="70" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C149" s="110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H149" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="70" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B150" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H150" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B151" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C151" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H151" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B152" s="121" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C152" s="74" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H152" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="70" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B153" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H153" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="70" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B154" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C154" s="121" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H154" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B155" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H155" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B156" s="121" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C156" s="74" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H156" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="70" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C157" s="113" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H157" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B158" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H158" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C159" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H159" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B160" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H160" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="70" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B161" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H161" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C162" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H162" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B163" s="113" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H163" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
-        <v>853</v>
+        <v>884</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C164" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H164" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="70" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C165" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H165" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B166" s="121" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="H166" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="70" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C167" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H167" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B168" s="121" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="H168" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="70" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B169" s="121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H169" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B170" s="95" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H170" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B171" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C171" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H171" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="70" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C172" s="95" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H172" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="B173" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H173" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B174" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H174" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H175" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B176" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H176" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B177" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H177" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B178" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C178" s="95" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H178" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B179" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H179" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B180" s="95" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H180" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H181" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B182" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C182" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H182" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B183" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H183" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H184" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B185" s="70" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C185" s="95" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D185" s="110" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H185" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B186" s="95" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C186" s="95" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D186" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H186" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B188" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H188" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="B189" s="70" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C189" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H189" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B190" s="121" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C190" s="70" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H190" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B191" s="95" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B192" s="95" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="H192" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B193" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C193" s="95" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H193" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="95" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B194" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H194" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="B195" s="70" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C195" s="91"/>
       <c r="D195" s="91"/>
@@ -7190,74 +7190,74 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="95" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B196" s="95" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C196" s="110" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="H196" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="98" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B197" s="98" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C197" s="110" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H197" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="95" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B198" s="95" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C198" s="110" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="H198" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="95" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B199" s="70" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C199" s="95" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D199" s="110" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="H199" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="95" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B200" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C200" s="70"/>
       <c r="D200" s="95"/>
@@ -7265,1035 +7265,1035 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="121" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="B201" s="95" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C201" s="95" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E201" s="95" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F201" s="90" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G201" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H201" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="95" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B202" s="95" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C202" s="95" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D202" s="70" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H202" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="95" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B203" s="113" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C203" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H203" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="95" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B204" s="95" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C204" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="121" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="B205" s="113" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C205" s="113" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H205" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="121" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B206" s="95" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C206" s="95" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D206" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E206" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F206" s="110" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H206" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="121" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="B207" s="95" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C207" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D207" s="95" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E207" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="H207" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="95" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B208" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C208" s="95" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H208" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="95" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B209" s="95" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C209" s="95" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E209" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H209" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="95" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B210" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H210" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="H211" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="95" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B212" s="121" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C212" s="113" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D212" s="113" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="H212" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="95" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B213" s="121" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C213" s="95" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="95" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B214" s="121" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="H214" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B215" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C215" s="95" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D215" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H215" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="78" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C216" s="110" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="78" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B217" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C217" s="78" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H217" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="95" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B218" s="95" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C218" s="95" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="121" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="B219" s="95" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C219" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="95" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B220" s="95" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C220" s="95" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D220" s="110" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="95" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B221" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C221" s="124" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H221" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="121" t="s">
-        <v>862</v>
+      <c r="A222" s="137" t="s">
+        <v>891</v>
       </c>
       <c r="B222" s="95" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C222" s="95" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="D222" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H222" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="95" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B223" s="95" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="H223" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="95" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B224" s="95" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C224" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H224" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="95" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B225" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C225" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H225" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B226" s="95" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C226" s="110" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H226" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="95" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B227" s="95" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H227" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="121" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B228" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C228" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H228" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="95" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B229" s="95" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C229" s="95" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H229" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="95" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B230" s="95" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C230" s="95" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="D230" s="110" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H230" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="95" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B231" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C231" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H231" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="95" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B232" s="70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C232" s="70" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D232" s="70" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E232" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="95" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B233" s="95" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C233" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H233" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="95" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B234" s="95" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C234" s="95" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="H234" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="95" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B235" s="70" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C235" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H235" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="70" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B236" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C236" s="110" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H236" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="95" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B237" s="98" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C237" s="110" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H237" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="70" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B238" s="98" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C238" s="110" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H238" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="70" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B239" s="95" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C239" s="95" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D239" s="110" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H239" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="70" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B240" s="122" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C240" s="110" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H240" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="70" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B241" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C241" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H241" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="70" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B242" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C242" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H242" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="70" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B243" s="70" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C243" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D243" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H243" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="70" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B244" s="70" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C244" s="70" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D244" s="110" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H244" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="70" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B245" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C245" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D245" s="110"/>
       <c r="H245" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="70" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="B246" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C246" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H246" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="70" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B247" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D247" s="110" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H247" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="97" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B248" s="123" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C248" s="99" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D248" s="110" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H248" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="70" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B249" s="70" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C249" s="70" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D249" s="70" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E249" s="70" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F249" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H249" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="70" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B250" s="70" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C250" s="70" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D250" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="E250" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H250" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B251" s="70" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C251" s="70"/>
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B252" s="70"/>
       <c r="C252" s="70"/>
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="70" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B253" s="70" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C253" s="70" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B254" s="70" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C254" s="110" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="70" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B255" s="70" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C255" s="70" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D255" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="70" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B256" s="70" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C256" s="124" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="70" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B257" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C257" s="70"/>
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="70" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B258" s="70" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C258" s="70" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D258" s="110" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="70" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B259" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C259" s="70" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="70" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="70" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B261" s="70" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C261" s="124" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="70" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="B262" s="70" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="70" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B263" s="70" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D263" s="70" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E263" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H263" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="70" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B264" s="95" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C264" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B265" s="95" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C265" s="70" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D265" s="70" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E265" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H265" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="70" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B266" s="113" t="s">
         <v>176</v>
@@ -8302,41 +8302,41 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="70" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B267" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="D267" s="70" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B268" s="121" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C268" s="74" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -8344,144 +8344,144 @@
         <v>128</v>
       </c>
       <c r="B269" s="70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C269" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="70" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B270" s="70" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C270" s="70" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D270" s="121" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="H270" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="70" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B271" s="70" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D271" s="70" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="70" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B272" s="121" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C272" s="70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="70" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B273" s="121" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C273" s="113" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D273" s="70" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="70" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B274" s="121" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C274" s="113" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D274" s="70" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E274" s="70" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="H274" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="70" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B275" s="121" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C275" s="74" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="70" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B276" s="70" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C276" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="70" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B277" s="70" t="s">
         <v>0</v>
@@ -8490,163 +8490,163 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="70" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B278" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C278" s="70"/>
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="70" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B279" s="70" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D279" s="110" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="70" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B280" s="70" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C280" s="110" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="70" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B281" s="70" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="70" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D282" s="70" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="70" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B283" s="70" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C283" s="110" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="70" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B284" s="70" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D284" s="70" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="70" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B285" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C285" s="70" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="70" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B286" s="70" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C286" s="70" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="70" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B287" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C287" s="110"/>
       <c r="D287" s="70"/>
@@ -8654,91 +8654,91 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="70" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B288" s="70" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C288" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="70" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B289" s="70" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C289" s="70" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="70" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B290" s="70" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C290" s="70" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D290" s="70" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E290" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H290" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="70" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C291" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="70" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B292" s="70" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C292" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8746,1176 +8746,1176 @@
         <v>177</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C293" s="121" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="H293" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="95" t="s">
-        <v>462</v>
+      <c r="A294" s="137" t="s">
+        <v>892</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C294" s="121" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="H294" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B295" s="121" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="H295" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="70" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="H296" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="70" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="H297" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="70" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="H298" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="121" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B299" s="95" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C299" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D299" s="95" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="H299" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="95" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="H300" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="70" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B301" s="70" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C301" s="70" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D301" s="95" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E301" s="95" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="H301" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C302" s="70" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D302" s="122" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="H302" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="70" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B303" s="70" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C303" s="70" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="70" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B304" s="70" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="70" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B305" s="95" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H305" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="97" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B306" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C306" s="95" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H306" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B307" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C307" s="95" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D307" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H307" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="70" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B308" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C308" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H308" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="100" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B309" s="70" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="H309" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="97" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B310" s="95" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C310" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H310" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="97" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B311" s="117" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C311" s="117" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="70" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B312" s="117" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C312" s="124" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H312" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="97" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B313" s="97" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H313" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="70" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B314" s="95" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="H314" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="70" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C315" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H315" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C316" s="110" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H316" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="B317" s="95" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C317" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="H317" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="70" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C318" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H318" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="70" t="s">
-        <v>642</v>
+        <v>893</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C319" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H319" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="70" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B320" s="70" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C320" s="70" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H320" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="70" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B321" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C321" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H321" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="70" t="s">
-        <v>581</v>
+        <v>883</v>
       </c>
       <c r="B322" s="95" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H322" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="70" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B323" s="121" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C323" s="74" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H323" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="70" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B324" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H324" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="70" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B325" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="D325" s="70" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H325" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="70" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B326" s="95" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C326" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H326" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="70" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B327" s="95" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C327" s="95" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D327" s="95" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H327" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="70" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B328" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C328" s="110" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="H328" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="70" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B329" s="113" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="H329" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="70" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B330" s="123" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="H330" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="70" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B331" s="95" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C331" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H331" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="70" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C332" s="95" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D332" s="110" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="H332" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="70" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B333" s="95" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C333" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H333" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="114" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="B334" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="70" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B335" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H335" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="70" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B336" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H336" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="70" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B337" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C337" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H337" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="70" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="H338" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="70" t="s">
-        <v>560</v>
+        <v>894</v>
       </c>
       <c r="B339" s="95" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C339" s="110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H339" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="70" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B340" s="95" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C340" s="95" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H340" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="70" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B341" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H341" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="70" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C342" s="121" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="H342" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="70" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B343" s="97" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C343" s="97" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D343" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H343" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="95" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B344" s="121" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C344" s="121" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="H344" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="97" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B345" s="123" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C345" s="97" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D345" s="97" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="H345" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="123" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B346" s="95" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C346" s="95" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D346" s="123" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="H346" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="70" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B347" s="121" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C347" s="121" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="H347" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="70" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B348" s="95" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C348" s="95" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="H348" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="70" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B349" s="95" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H349" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="70" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B350" s="113" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="H350" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="70" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B351" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C351" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H351" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="70" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B352" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="H352" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="70" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B353" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C353" s="88" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H353" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="70" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B354" s="113" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C354" s="113" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="H354" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="70" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B355" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H355" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="70" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B356" s="89" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H356" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="70" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B357" s="70" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D357" s="70" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="H357" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="70" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B358" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H358" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="70" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B359" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H359" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="70" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B360" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C360" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H360" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="92" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B361" s="89" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C361" s="110" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H361" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="70" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B362" s="95" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C362" s="110" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H362" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="70" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C363" s="123" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D363" s="74" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H363" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B364" s="95" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C364" s="95" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H364" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="70" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B365" s="115" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C365" s="95" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D365" s="112"/>
       <c r="H365" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="70" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B366" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C366" s="70" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D366" s="124" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="70" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C367" s="95" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H367" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="70" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B368" s="89" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C368" s="89" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="123" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B369" s="97" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C369" s="97" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H369" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="70" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B370" s="70" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C370" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H370" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="92" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B371" s="89" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C371" s="110" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="H371" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="121" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B372" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C372" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D372" s="124" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="H372" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="70" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B373" s="89" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="70" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B374" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D374" s="124" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="H374" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="70" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B375" s="95" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="H375" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="97" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B376" s="97" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C376" s="97" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="H376" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9923,15 +9923,15 @@
         <v>5</v>
       </c>
       <c r="B377" s="121" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="H377" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="95" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B378" s="113" t="s">
         <v>176</v>
@@ -9941,770 +9941,770 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="95" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B379" s="95" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H379" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="70" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B380" s="113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H380" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="70" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B381" s="97" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C381" s="97" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H381" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="70" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B382" s="113" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C382" s="70" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D382" s="121" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H382" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="70" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C383" s="124" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
       <c r="H383" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="70" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B384" s="95" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D384" s="110" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B385" s="95" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C385" s="70" t="s">
+        <v>768</v>
+      </c>
+      <c r="D385" s="124" t="s">
         <v>776</v>
       </c>
-      <c r="D385" s="124" t="s">
-        <v>784</v>
-      </c>
       <c r="H385" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="70" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="C386" s="110" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H386" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="70" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B387" s="95" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C387" s="124" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H387" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B388" s="95" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C388" s="124" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="70" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B389" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C389" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H389" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="116" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B390" s="115" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C390" s="70" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
       <c r="H390" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="70" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B391" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H391" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="70" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B392" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H392" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="70" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B393" s="70" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C393" s="70" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="H393" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="70" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B394" s="89" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C394" s="89" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H394" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="70" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B395" s="121" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C395" s="121" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H395" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="70" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B396" s="121" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="H396" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="102" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B397" s="70" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C397" s="95" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="D397" s="109" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="H397" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="70" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B398" s="70" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C398" s="109" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="H398" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="101" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B399" s="101" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="H399" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="70" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B400" s="95" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C400" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H400" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="70" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B401" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H401" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="70" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B402" s="95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H402" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B403" s="121" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H403" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="70" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B404" s="95" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C404" s="95" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D404" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H404" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="70" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B405" s="113" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C405" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="H405" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="103" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B406" s="103" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C406" s="103" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D406" s="110" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="104" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B407" s="95" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H407" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C408" s="110" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C409" s="110" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H409" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="95" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C410" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H410" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="70" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B411" s="74" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C411" s="74" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H411" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="70" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B412" s="74" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H412" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="101" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B413" s="101" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H413" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="101" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B414" s="101" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H414" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="70" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="C415" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H415" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="70" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B416" s="121" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="H416" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="105" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="H417" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="70" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B418" s="74" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H418" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="70" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B419" s="74" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C419" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H419" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="70" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C420" s="74" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H420" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="70" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B421" s="74" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C421" s="95" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="H421" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="70" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C422" s="74" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H422" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="121" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B423" s="121" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C423" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H423" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="70" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B424" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H424" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="70" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C425" s="121" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="H425" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="70" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B426" s="106" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C426" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H426" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B427" s="107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C427" s="107" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="D427" s="121" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="H427" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B428" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H428" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B429" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C429" s="70" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D429" s="110" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H429" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="70" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B430" s="113" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H430" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B431" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C431" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H431" s="118"/>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="70" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B432" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C432" s="110" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H432" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="70" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B433" s="121" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C433" s="70" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H433" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="70" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B434" s="108" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C434" s="110" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H434" s="118" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="132" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="138" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B138" s="38" t="s">
         <v>170</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="41" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B140" s="38"/>
       <c r="C140" s="128">
@@ -11841,21 +11841,21 @@
     </row>
     <row r="141" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B141" s="38"/>
       <c r="C141" s="126"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B142" s="38"/>
       <c r="C142" s="126"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B143" s="38"/>
       <c r="C143" s="126"/>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B145" s="38"/>
       <c r="C145" s="39">
@@ -11881,7 +11881,7 @@
     </row>
     <row r="147" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="42">
@@ -11895,7 +11895,7 @@
     </row>
     <row r="149" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B149" s="38"/>
       <c r="C149" s="42">
@@ -11909,7 +11909,7 @@
     </row>
     <row r="151" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="43" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B151" s="38" t="s">
         <v>169</v>
@@ -11920,7 +11920,7 @@
     </row>
     <row r="152" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B152" s="38" t="s">
         <v>167</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="153" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="37" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B153" s="38"/>
       <c r="C153" s="40"/>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="155" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B155" s="38" t="s">
         <v>168</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="157" spans="1:3" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B157" s="38" t="s">
         <v>175</v>
@@ -11973,10 +11973,10 @@
     </row>
     <row r="159" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C159" s="46">
         <v>45525</v>
@@ -11989,10 +11989,10 @@
     </row>
     <row r="161" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C161" s="46">
         <v>45525</v>
@@ -12005,10 +12005,10 @@
     </row>
     <row r="163" spans="1:3" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C163" s="46">
         <v>45525</v>
@@ -12016,10 +12016,10 @@
     </row>
     <row r="164" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C164" s="42">
         <v>45531</v>
@@ -12032,10 +12032,10 @@
     </row>
     <row r="166" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B166" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C166" s="48">
         <v>45541</v>
@@ -12048,10 +12048,10 @@
     </row>
     <row r="168" spans="1:3" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B168" s="38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C168" s="48">
         <v>45541</v>
@@ -12064,10 +12064,10 @@
     </row>
     <row r="170" spans="1:3" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="49" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B170" s="38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C170" s="48">
         <v>45541</v>
@@ -12080,10 +12080,10 @@
     </row>
     <row r="172" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C172" s="48">
         <v>45546</v>
@@ -12096,10 +12096,10 @@
     </row>
     <row r="174" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C174" s="48">
         <v>45546</v>
@@ -12112,10 +12112,10 @@
     </row>
     <row r="176" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C176" s="54">
         <v>45552</v>
@@ -12128,10 +12128,10 @@
     </row>
     <row r="178" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C178" s="48">
         <v>45567</v>
@@ -12144,10 +12144,10 @@
     </row>
     <row r="180" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C180" s="131">
         <v>45576</v>
@@ -12160,10 +12160,10 @@
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C182" s="131"/>
     </row>
@@ -12174,10 +12174,10 @@
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C184" s="131"/>
     </row>
@@ -12188,10 +12188,10 @@
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C186" s="131"/>
     </row>
@@ -12202,10 +12202,10 @@
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C188" s="131"/>
     </row>
@@ -12216,7 +12216,7 @@
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B190" s="38"/>
       <c r="C190" s="39">
@@ -12226,16 +12226,16 @@
     <row r="191" spans="1:3" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="34"/>
       <c r="B191" s="61" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C191" s="62"/>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B192" s="125" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C192" s="128">
         <v>45610</v>
@@ -12243,21 +12243,21 @@
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B193" s="125"/>
       <c r="C193" s="126"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B194" s="125"/>
       <c r="C194" s="126"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B195" s="125"/>
       <c r="C195" s="126"/>
@@ -12269,10 +12269,10 @@
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B197" s="125" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C197" s="129">
         <v>45614</v>
@@ -12280,14 +12280,14 @@
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B198" s="125"/>
       <c r="C198" s="130"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B199" s="125"/>
       <c r="C199" s="130"/>
@@ -12299,10 +12299,10 @@
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B201" s="125" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C201" s="39">
         <v>45615</v>
@@ -12310,49 +12310,49 @@
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="63" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B202" s="125"/>
       <c r="C202" s="126"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B203" s="125"/>
       <c r="C203" s="126"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B204" s="125"/>
       <c r="C204" s="126"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B205" s="125"/>
       <c r="C205" s="126"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B206" s="125"/>
       <c r="C206" s="126"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B207" s="125"/>
       <c r="C207" s="126"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B208" s="125"/>
       <c r="C208" s="126"/>
@@ -12364,16 +12364,16 @@
     </row>
     <row r="210" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B210" s="38"/>
       <c r="C210" s="126" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B211" s="38"/>
       <c r="C211" s="127"/>
@@ -12385,11 +12385,11 @@
     </row>
     <row r="213" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12399,13 +12399,13 @@
     </row>
     <row r="215" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="37" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C215" s="40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12415,10 +12415,10 @@
     </row>
     <row r="217" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C217" s="39">
         <v>45622</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="219" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="37" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B219" s="38"/>
       <c r="C219" s="39">
@@ -12440,10 +12440,10 @@
     </row>
     <row r="221" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B221" s="65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C221" s="66">
         <v>45666</v>
@@ -12454,10 +12454,10 @@
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="82" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B223" s="83" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C223" s="84">
         <v>45681</v>
@@ -12525,102 +12525,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="93" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -12645,30 +12645,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="85" customFormat="1" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E029A-435F-4772-90DA-05BE5987230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCBE26-740E-4689-A87A-F8A020FF9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="896">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2820,9 +2820,6 @@
     <t>Ограничение по счетам/карте| приостановление по счетам/ карте</t>
   </si>
   <si>
-    <t>Снять деньги в офисе| снять деньги в кассе/ у операциониста</t>
-  </si>
-  <si>
     <t>Связаться с отделением банка|мне нужен номер филиала в городе сосновый бор</t>
   </si>
   <si>
@@ -2857,18 +2854,32 @@
   </si>
   <si>
     <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи|сумма получателю пришла меньше чем перевел</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Снять деньги у операциониста| снять деньги в кассе/ в офисе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3216,38 +3227,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3256,67 +3267,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3340,22 +3351,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3364,43 +3375,43 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3417,39 +3428,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3470,124 +3481,117 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3595,9 +3599,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4680,10 +4694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H434"/>
+  <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4873,7 +4887,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="125" t="s">
         <v>824</v>
       </c>
       <c r="B13" s="121" t="s">
@@ -5081,8 +5095,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
-        <v>888</v>
+      <c r="A30" s="125" t="s">
+        <v>887</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>176</v>
@@ -5196,8 +5210,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="137" t="s">
-        <v>886</v>
+      <c r="A39" s="125" t="s">
+        <v>885</v>
       </c>
       <c r="B39" s="95" t="s">
         <v>176</v>
@@ -5207,8 +5221,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="137" t="s">
-        <v>887</v>
+      <c r="A40" s="125" t="s">
+        <v>886</v>
       </c>
       <c r="B40" s="121" t="s">
         <v>713</v>
@@ -5280,8 +5294,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="137" t="s">
-        <v>882</v>
+      <c r="A46" s="138" t="s">
+        <v>895</v>
       </c>
       <c r="B46" s="121" t="s">
         <v>804</v>
@@ -5308,7 +5322,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="137" t="s">
+      <c r="A48" s="125" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="70" t="s">
@@ -5725,8 +5739,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="137" t="s">
-        <v>889</v>
+      <c r="A80" s="125" t="s">
+        <v>888</v>
       </c>
       <c r="B80" s="95" t="s">
         <v>176</v>
@@ -6057,8 +6071,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="137" t="s">
-        <v>885</v>
+      <c r="A107" s="125" t="s">
+        <v>884</v>
       </c>
       <c r="B107" s="115" t="s">
         <v>728</v>
@@ -6518,7 +6532,7 @@
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B142" s="113" t="s">
         <v>251</v>
@@ -6794,7 +6808,7 @@
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B164" s="70" t="s">
         <v>673</v>
@@ -7605,8 +7619,8 @@
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="137" t="s">
-        <v>891</v>
+      <c r="A222" s="125" t="s">
+        <v>890</v>
       </c>
       <c r="B222" s="95" t="s">
         <v>653</v>
@@ -8756,8 +8770,8 @@
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="137" t="s">
-        <v>892</v>
+      <c r="A294" s="125" t="s">
+        <v>891</v>
       </c>
       <c r="B294" s="70" t="s">
         <v>744</v>
@@ -9115,7 +9129,7 @@
     </row>
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="70" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B319" s="95" t="s">
         <v>749</v>
@@ -9157,7 +9171,7 @@
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="70" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B322" s="95" t="s">
         <v>684</v>
@@ -9381,7 +9395,7 @@
     </row>
     <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="70" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B339" s="95" t="s">
         <v>673</v>
@@ -10707,14 +10721,19 @@
         <v>781</v>
       </c>
     </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" s="70" t="s">
+        <v>894</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10770,22 +10789,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="127" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133">
+      <c r="C3" s="128">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="132"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="128"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -10793,22 +10812,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="127" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="128">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="132"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="128"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -10816,22 +10835,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="127" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C9" s="128">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="132"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="133"/>
+      <c r="C10" s="128"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -10839,22 +10858,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="127" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="128">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="132"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="133"/>
+      <c r="C13" s="128"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -10876,22 +10895,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="127" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="128">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="132"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="133"/>
+      <c r="C18" s="128"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -10921,7 +10940,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="128">
         <v>45019</v>
       </c>
     </row>
@@ -10932,12 +10951,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="133"/>
+      <c r="C23" s="128"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="133"/>
+      <c r="C24" s="128"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11617,7 +11636,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="136">
+      <c r="C114" s="133">
         <v>45442</v>
       </c>
     </row>
@@ -11628,7 +11647,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="136"/>
+      <c r="C115" s="133"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11637,7 +11656,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="136"/>
+      <c r="C116" s="133"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11646,7 +11665,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="136"/>
+      <c r="C117" s="133"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11655,7 +11674,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="136"/>
+      <c r="C118" s="133"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11664,7 +11683,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="136"/>
+      <c r="C119" s="133"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11673,7 +11692,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="136"/>
+      <c r="C120" s="133"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11682,7 +11701,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="136"/>
+      <c r="C121" s="133"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11691,7 +11710,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="136"/>
+      <c r="C122" s="133"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -11700,7 +11719,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="136"/>
+      <c r="C123" s="133"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -11709,7 +11728,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="136"/>
+      <c r="C124" s="133"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -11744,7 +11763,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="134">
+      <c r="C129" s="131">
         <v>45485</v>
       </c>
     </row>
@@ -11755,7 +11774,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="135"/>
+      <c r="C130" s="132"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -11764,7 +11783,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="135"/>
+      <c r="C131" s="132"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -11773,7 +11792,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="135"/>
+      <c r="C132" s="132"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -11787,7 +11806,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="134">
+      <c r="C134" s="131">
         <v>45485</v>
       </c>
     </row>
@@ -11798,7 +11817,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="134"/>
+      <c r="C135" s="131"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -11807,7 +11826,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="134"/>
+      <c r="C136" s="131"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -11835,7 +11854,7 @@
         <v>337</v>
       </c>
       <c r="B140" s="38"/>
-      <c r="C140" s="128">
+      <c r="C140" s="129">
         <v>45503</v>
       </c>
     </row>
@@ -11844,21 +11863,21 @@
         <v>338</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="126"/>
+      <c r="C141" s="130"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="126"/>
+      <c r="C142" s="130"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="126"/>
+      <c r="C143" s="130"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12149,14 +12168,14 @@
       <c r="B180" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="131">
+      <c r="C180" s="126">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="131"/>
+      <c r="C181" s="126"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12165,12 +12184,12 @@
       <c r="B182" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C182" s="131"/>
+      <c r="C182" s="126"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="131"/>
+      <c r="C183" s="126"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12179,12 +12198,12 @@
       <c r="B184" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="131"/>
+      <c r="C184" s="126"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="131"/>
+      <c r="C185" s="126"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12193,12 +12212,12 @@
       <c r="B186" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="131"/>
+      <c r="C186" s="126"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="131"/>
+      <c r="C187" s="126"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12207,7 +12226,7 @@
       <c r="B188" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="131"/>
+      <c r="C188" s="126"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12234,10 +12253,10 @@
       <c r="A192" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="125" t="s">
+      <c r="B192" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="C192" s="128">
+      <c r="C192" s="129">
         <v>45610</v>
       </c>
     </row>
@@ -12245,22 +12264,22 @@
       <c r="A193" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="125"/>
-      <c r="C193" s="126"/>
+      <c r="B193" s="134"/>
+      <c r="C193" s="130"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="125"/>
-      <c r="C194" s="126"/>
+      <c r="B194" s="134"/>
+      <c r="C194" s="130"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="125"/>
-      <c r="C195" s="126"/>
+      <c r="B195" s="134"/>
+      <c r="C195" s="130"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12271,10 +12290,10 @@
       <c r="A197" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="125" t="s">
+      <c r="B197" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="129">
+      <c r="C197" s="136">
         <v>45614</v>
       </c>
     </row>
@@ -12282,15 +12301,15 @@
       <c r="A198" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="125"/>
-      <c r="C198" s="130"/>
+      <c r="B198" s="134"/>
+      <c r="C198" s="137"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="125"/>
-      <c r="C199" s="130"/>
+      <c r="B199" s="134"/>
+      <c r="C199" s="137"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12301,7 +12320,7 @@
       <c r="A201" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="125" t="s">
+      <c r="B201" s="134" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="39">
@@ -12312,50 +12331,50 @@
       <c r="A202" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="125"/>
-      <c r="C202" s="126"/>
+      <c r="B202" s="134"/>
+      <c r="C202" s="130"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B203" s="125"/>
-      <c r="C203" s="126"/>
+      <c r="B203" s="134"/>
+      <c r="C203" s="130"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B204" s="125"/>
-      <c r="C204" s="126"/>
+      <c r="B204" s="134"/>
+      <c r="C204" s="130"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="125"/>
-      <c r="C205" s="126"/>
+      <c r="B205" s="134"/>
+      <c r="C205" s="130"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B206" s="125"/>
-      <c r="C206" s="126"/>
+      <c r="B206" s="134"/>
+      <c r="C206" s="130"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="125"/>
-      <c r="C207" s="126"/>
+      <c r="B207" s="134"/>
+      <c r="C207" s="130"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="125"/>
-      <c r="C208" s="126"/>
+      <c r="B208" s="134"/>
+      <c r="C208" s="130"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12367,7 +12386,7 @@
         <v>386</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="126" t="s">
+      <c r="C210" s="130" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12376,7 +12395,7 @@
         <v>384</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="127"/>
+      <c r="C211" s="135"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12465,18 +12484,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -12493,13 +12519,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCBE26-740E-4689-A87A-F8A020FF9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C2272D-9D4E-4B33-95D3-B09BA0B29EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3578,6 +3578,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3588,12 +3607,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3601,19 +3614,6 @@
     </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4696,7 +4696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="126" t="s">
         <v>895</v>
       </c>
       <c r="B46" s="121" t="s">
@@ -10728,12 +10728,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10789,22 +10789,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="134" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="135">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="127"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -10812,22 +10812,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="135">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="127"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="135"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -10835,22 +10835,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="134" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="135">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="128"/>
+      <c r="C10" s="135"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -10858,22 +10858,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="134" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="135">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="127"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="135"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -10895,22 +10895,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="134" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="135">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="127"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="128"/>
+      <c r="C18" s="135"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -10940,7 +10940,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="135">
         <v>45019</v>
       </c>
     </row>
@@ -10951,12 +10951,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="128"/>
+      <c r="C23" s="135"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="128"/>
+      <c r="C24" s="135"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11636,7 +11636,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="133">
+      <c r="C114" s="138">
         <v>45442</v>
       </c>
     </row>
@@ -11647,7 +11647,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="133"/>
+      <c r="C115" s="138"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11656,7 +11656,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="133"/>
+      <c r="C116" s="138"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11665,7 +11665,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="133"/>
+      <c r="C117" s="138"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11674,7 +11674,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="133"/>
+      <c r="C118" s="138"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11683,7 +11683,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="133"/>
+      <c r="C119" s="138"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11692,7 +11692,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="133"/>
+      <c r="C120" s="138"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11701,7 +11701,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="133"/>
+      <c r="C121" s="138"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11710,7 +11710,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="133"/>
+      <c r="C122" s="138"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -11719,7 +11719,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="133"/>
+      <c r="C123" s="138"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -11728,7 +11728,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="133"/>
+      <c r="C124" s="138"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -11763,7 +11763,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="131">
+      <c r="C129" s="136">
         <v>45485</v>
       </c>
     </row>
@@ -11774,7 +11774,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="132"/>
+      <c r="C130" s="137"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -11783,7 +11783,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="132"/>
+      <c r="C131" s="137"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -11792,7 +11792,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="132"/>
+      <c r="C132" s="137"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -11806,7 +11806,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="131">
+      <c r="C134" s="136">
         <v>45485</v>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="131"/>
+      <c r="C135" s="136"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -11826,7 +11826,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="131"/>
+      <c r="C136" s="136"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -11854,7 +11854,7 @@
         <v>337</v>
       </c>
       <c r="B140" s="38"/>
-      <c r="C140" s="129">
+      <c r="C140" s="130">
         <v>45503</v>
       </c>
     </row>
@@ -11863,21 +11863,21 @@
         <v>338</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="130"/>
+      <c r="C141" s="128"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="130"/>
+      <c r="C142" s="128"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="130"/>
+      <c r="C143" s="128"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12168,14 +12168,14 @@
       <c r="B180" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="126">
+      <c r="C180" s="133">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="126"/>
+      <c r="C181" s="133"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12184,12 +12184,12 @@
       <c r="B182" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C182" s="126"/>
+      <c r="C182" s="133"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="126"/>
+      <c r="C183" s="133"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12198,12 +12198,12 @@
       <c r="B184" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="126"/>
+      <c r="C184" s="133"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="126"/>
+      <c r="C185" s="133"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12212,12 +12212,12 @@
       <c r="B186" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="126"/>
+      <c r="C186" s="133"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="126"/>
+      <c r="C187" s="133"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12226,7 +12226,7 @@
       <c r="B188" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="126"/>
+      <c r="C188" s="133"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12253,10 +12253,10 @@
       <c r="A192" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="134" t="s">
+      <c r="B192" s="127" t="s">
         <v>383</v>
       </c>
-      <c r="C192" s="129">
+      <c r="C192" s="130">
         <v>45610</v>
       </c>
     </row>
@@ -12264,22 +12264,22 @@
       <c r="A193" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="134"/>
-      <c r="C193" s="130"/>
+      <c r="B193" s="127"/>
+      <c r="C193" s="128"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="134"/>
-      <c r="C194" s="130"/>
+      <c r="B194" s="127"/>
+      <c r="C194" s="128"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="134"/>
-      <c r="C195" s="130"/>
+      <c r="B195" s="127"/>
+      <c r="C195" s="128"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12290,10 +12290,10 @@
       <c r="A197" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="134" t="s">
+      <c r="B197" s="127" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="136">
+      <c r="C197" s="131">
         <v>45614</v>
       </c>
     </row>
@@ -12301,15 +12301,15 @@
       <c r="A198" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="134"/>
-      <c r="C198" s="137"/>
+      <c r="B198" s="127"/>
+      <c r="C198" s="132"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="134"/>
-      <c r="C199" s="137"/>
+      <c r="B199" s="127"/>
+      <c r="C199" s="132"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12320,7 +12320,7 @@
       <c r="A201" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="134" t="s">
+      <c r="B201" s="127" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="39">
@@ -12331,50 +12331,50 @@
       <c r="A202" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="134"/>
-      <c r="C202" s="130"/>
+      <c r="B202" s="127"/>
+      <c r="C202" s="128"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B203" s="134"/>
-      <c r="C203" s="130"/>
+      <c r="B203" s="127"/>
+      <c r="C203" s="128"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B204" s="134"/>
-      <c r="C204" s="130"/>
+      <c r="B204" s="127"/>
+      <c r="C204" s="128"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="134"/>
-      <c r="C205" s="130"/>
+      <c r="B205" s="127"/>
+      <c r="C205" s="128"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B206" s="134"/>
-      <c r="C206" s="130"/>
+      <c r="B206" s="127"/>
+      <c r="C206" s="128"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="134"/>
-      <c r="C207" s="130"/>
+      <c r="B207" s="127"/>
+      <c r="C207" s="128"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="134"/>
-      <c r="C208" s="130"/>
+      <c r="B208" s="127"/>
+      <c r="C208" s="128"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12386,7 +12386,7 @@
         <v>386</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="130" t="s">
+      <c r="C210" s="128" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12395,7 +12395,7 @@
         <v>384</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="135"/>
+      <c r="C211" s="129"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12484,25 +12484,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -12519,6 +12512,13 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
